--- a/capiq_data/in_process_data/IQ30292.xlsx
+++ b/capiq_data/in_process_data/IQ30292.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E161515-BAB1-48FA-B3D0-0A2B91468FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BCB69F-27FD-4C56-9667-48CF904A91DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"112b732b-5ae1-4b2c-b1ba-307ae9b9d270"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a7c41b3d-058b-49b7-97a4-3d8b9a5cf031"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>29.332000000000001</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="D2">
-        <v>710.85400000000004</v>
+        <v>265.536</v>
       </c>
       <c r="E2">
-        <v>524.32600000000002</v>
+        <v>176.44200000000001</v>
       </c>
       <c r="F2">
-        <v>423.38400000000001</v>
+        <v>134.27500000000001</v>
       </c>
       <c r="G2">
-        <v>1212.462</v>
+        <v>236.66800000000001</v>
       </c>
       <c r="H2">
-        <v>6416.393</v>
+        <v>2659.096</v>
       </c>
       <c r="I2">
-        <v>143.76499999999999</v>
+        <v>42.530999999999999</v>
       </c>
       <c r="J2">
-        <v>2912.1260000000002</v>
+        <v>1314.3420000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>874.70299999999997</v>
+        <v>314.053</v>
       </c>
       <c r="O2">
-        <v>4463.5280000000002</v>
+        <v>1691.6089999999999</v>
       </c>
       <c r="P2">
-        <v>3008.2069999999999</v>
+        <v>1355.1310000000001</v>
       </c>
       <c r="Q2">
-        <v>74.52</v>
+        <v>-68.387</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>19400</v>
+        <v>10300</v>
       </c>
       <c r="T2">
-        <v>1952.865</v>
+        <v>967.48699999999997</v>
       </c>
       <c r="U2">
-        <v>258.69299999999998</v>
+        <v>6.2</v>
       </c>
       <c r="V2">
-        <v>180.10400000000001</v>
+        <v>47.921999999999997</v>
       </c>
       <c r="W2">
-        <v>-12.532</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-26.19</v>
+        <v>3.9590000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>29.332000000000001</v>
+        <v>4.0960000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>73.459999999999994</v>
+        <v>3.1989999999999998</v>
       </c>
       <c r="D3">
-        <v>746.00900000000001</v>
+        <v>283.92200000000003</v>
       </c>
       <c r="E3">
-        <v>610.149</v>
+        <v>208.05699999999999</v>
       </c>
       <c r="F3">
-        <v>430.05399999999997</v>
+        <v>144.102</v>
       </c>
       <c r="G3">
-        <v>1018.602</v>
+        <v>276.77800000000002</v>
       </c>
       <c r="H3">
-        <v>6470.1019999999999</v>
+        <v>2738.0540000000001</v>
       </c>
       <c r="I3">
-        <v>132.13900000000001</v>
+        <v>37.831000000000003</v>
       </c>
       <c r="J3">
-        <v>2960.88</v>
+        <v>1371.442</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-659.803</v>
+        <v>-42.293999999999997</v>
       </c>
       <c r="N3">
-        <v>807.947</v>
+        <v>309.80599999999998</v>
       </c>
       <c r="O3">
-        <v>4442.116</v>
+        <v>1742.847</v>
       </c>
       <c r="P3">
-        <v>3005.6790000000001</v>
+        <v>1403.0709999999999</v>
       </c>
       <c r="Q3">
-        <v>-68.876000000000005</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2027.9860000000001</v>
+        <v>995.20699999999999</v>
       </c>
       <c r="U3">
-        <v>189.81700000000001</v>
+        <v>9.9030000000000005</v>
       </c>
       <c r="V3">
-        <v>119.337</v>
+        <v>23.899000000000001</v>
       </c>
       <c r="W3">
-        <v>-37.514000000000003</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-90.510999999999996</v>
+        <v>66.894000000000005</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>73.459999999999994</v>
+        <v>3.1989999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>252.684</v>
+        <v>-9.7460000000000004</v>
       </c>
       <c r="D4">
-        <v>758.55100000000004</v>
+        <v>293.334</v>
       </c>
       <c r="E4">
-        <v>577.61599999999999</v>
+        <v>215.53100000000001</v>
       </c>
       <c r="F4">
-        <v>450.97399999999999</v>
+        <v>154.304</v>
       </c>
       <c r="G4">
-        <v>1069.646</v>
+        <v>320.83800000000002</v>
       </c>
       <c r="H4">
-        <v>6410.6989999999996</v>
+        <v>2823.4279999999999</v>
       </c>
       <c r="I4">
-        <v>133.63300000000001</v>
+        <v>48.822000000000003</v>
       </c>
       <c r="J4">
-        <v>2866.92</v>
+        <v>1420.9459999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>798.39200000000005</v>
+        <v>341.06099999999998</v>
       </c>
       <c r="O4">
-        <v>4348.59</v>
+        <v>1832.9749999999999</v>
       </c>
       <c r="P4">
-        <v>2933.1190000000001</v>
+        <v>1452.3409999999999</v>
       </c>
       <c r="Q4">
-        <v>81.606999999999999</v>
+        <v>26.934000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2062.1089999999999</v>
+        <v>990.45299999999997</v>
       </c>
       <c r="U4">
-        <v>271.42399999999998</v>
+        <v>36.837000000000003</v>
       </c>
       <c r="V4">
-        <v>123.72</v>
+        <v>38.908999999999999</v>
       </c>
       <c r="W4">
-        <v>-37.53</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-332.98399999999998</v>
+        <v>40.872999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.40799999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>252.684</v>
+        <v>-9.7460000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>37.338000000000001</v>
+        <v>-22.809000000000001</v>
       </c>
       <c r="D5">
-        <v>768.30600000000004</v>
+        <v>291.673</v>
       </c>
       <c r="E5">
-        <v>548.42200000000003</v>
+        <v>223.76</v>
       </c>
       <c r="F5">
-        <v>461.94499999999999</v>
+        <v>151.755</v>
       </c>
       <c r="G5">
-        <v>1259.943</v>
+        <v>355.12900000000002</v>
       </c>
       <c r="H5">
-        <v>6391.4430000000002</v>
+        <v>2853.8870000000002</v>
       </c>
       <c r="I5">
-        <v>130.47</v>
+        <v>50.997999999999998</v>
       </c>
       <c r="J5">
-        <v>3257.2130000000002</v>
+        <v>1469.866</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>754.68899999999996</v>
+        <v>349.70699999999999</v>
       </c>
       <c r="O5">
-        <v>4677.7420000000002</v>
+        <v>1897.8869999999999</v>
       </c>
       <c r="P5">
-        <v>3320.4059999999999</v>
+        <v>1500.1030000000001</v>
       </c>
       <c r="Q5">
-        <v>209.45500000000001</v>
+        <v>23.300999999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1713.701</v>
+        <v>956</v>
       </c>
       <c r="U5">
-        <v>480.87900000000002</v>
+        <v>60.137999999999998</v>
       </c>
       <c r="V5">
-        <v>167.90100000000001</v>
+        <v>45.37</v>
       </c>
       <c r="W5">
-        <v>-50.695</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>102.861</v>
+        <v>33.052999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>37.338000000000001</v>
+        <v>-22.809000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>32.055999999999997</v>
+        <v>-14.701000000000001</v>
       </c>
       <c r="D6">
-        <v>741.83699999999999</v>
+        <v>320.089</v>
       </c>
       <c r="E6">
-        <v>543.46699999999998</v>
+        <v>219.05</v>
       </c>
       <c r="F6">
-        <v>423.03</v>
+        <v>162.31899999999999</v>
       </c>
       <c r="G6">
-        <v>914.45</v>
+        <v>309.31700000000001</v>
       </c>
       <c r="H6">
-        <v>6041.2579999999998</v>
+        <v>2859.9059999999999</v>
       </c>
       <c r="I6">
-        <v>156.381</v>
+        <v>64.596000000000004</v>
       </c>
       <c r="J6">
-        <v>3280.268</v>
+        <v>1460.8430000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>849.03</v>
+        <v>359.00900000000001</v>
       </c>
       <c r="O6">
-        <v>4787.0020000000004</v>
+        <v>1908.654</v>
       </c>
       <c r="P6">
-        <v>3353.5880000000002</v>
+        <v>1496.0989999999999</v>
       </c>
       <c r="Q6">
-        <v>-301.03399999999999</v>
+        <v>-38.779000000000003</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>17000</v>
+        <v>11300</v>
       </c>
       <c r="T6">
-        <v>1254.2560000000001</v>
+        <v>951.25199999999995</v>
       </c>
       <c r="U6">
-        <v>179.845</v>
+        <v>21.359000000000002</v>
       </c>
       <c r="V6">
-        <v>204.48</v>
+        <v>52.731000000000002</v>
       </c>
       <c r="W6">
-        <v>-46.877000000000002</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-443.17399999999998</v>
+        <v>-5.9189999999999996</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA6">
-        <v>32.055999999999997</v>
+        <v>-14.701000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>55.35</v>
+        <v>6.1219999999999999</v>
       </c>
       <c r="D7">
-        <v>746.49800000000005</v>
+        <v>317.19799999999998</v>
       </c>
       <c r="E7">
-        <v>558.35699999999997</v>
+        <v>228.399</v>
       </c>
       <c r="F7">
-        <v>431.2</v>
+        <v>164.75200000000001</v>
       </c>
       <c r="G7">
-        <v>931.99900000000002</v>
+        <v>311.988</v>
       </c>
       <c r="H7">
-        <v>6086.6220000000003</v>
+        <v>2876.7449999999999</v>
       </c>
       <c r="I7">
-        <v>139.23599999999999</v>
+        <v>69.475999999999999</v>
       </c>
       <c r="J7">
-        <v>3390.4470000000001</v>
+        <v>1465.8119999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-635.53899999999999</v>
+        <v>-128.46199999999999</v>
       </c>
       <c r="N7">
-        <v>778.14</v>
+        <v>369.65899999999999</v>
       </c>
       <c r="O7">
-        <v>4817.8190000000004</v>
+        <v>1932.854</v>
       </c>
       <c r="P7">
-        <v>3453.6759999999999</v>
+        <v>1503.2270000000001</v>
       </c>
       <c r="Q7">
-        <v>-1.552</v>
+        <v>-9.94</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1268.8030000000001</v>
+        <v>943.89099999999996</v>
       </c>
       <c r="U7">
-        <v>178.29300000000001</v>
+        <v>11.419</v>
       </c>
       <c r="V7">
-        <v>74.884</v>
+        <v>51.268999999999998</v>
       </c>
       <c r="W7">
-        <v>-43.18</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-14.096</v>
+        <v>5.2939999999999996</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>55.35</v>
+        <v>6.1219999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>38.055</v>
+        <v>19.989000000000001</v>
       </c>
       <c r="D8">
-        <v>752.16499999999996</v>
+        <v>327.72</v>
       </c>
       <c r="E8">
-        <v>572.37699999999995</v>
+        <v>232.38</v>
       </c>
       <c r="F8">
-        <v>439.10500000000002</v>
+        <v>172.31299999999999</v>
       </c>
       <c r="G8">
-        <v>891.154</v>
+        <v>327.18900000000002</v>
       </c>
       <c r="H8">
-        <v>6087.2120000000004</v>
+        <v>2931.3339999999998</v>
       </c>
       <c r="I8">
-        <v>136.666</v>
+        <v>57.863999999999997</v>
       </c>
       <c r="J8">
-        <v>3430.1570000000002</v>
+        <v>1487.201</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>780.726</v>
+        <v>358.41699999999997</v>
       </c>
       <c r="O8">
-        <v>4836.8879999999999</v>
+        <v>1960.9369999999999</v>
       </c>
       <c r="P8">
-        <v>3492.9940000000001</v>
+        <v>1525.954</v>
       </c>
       <c r="Q8">
-        <v>-8.0630000000000006</v>
+        <v>14.635999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1250.3240000000001</v>
+        <v>970.39700000000005</v>
       </c>
       <c r="U8">
-        <v>170.23</v>
+        <v>26.055</v>
       </c>
       <c r="V8">
-        <v>137.30600000000001</v>
+        <v>46.878999999999998</v>
       </c>
       <c r="W8">
-        <v>-42.790999999999997</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>21.178999999999998</v>
+        <v>17.736000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>38.055</v>
+        <v>19.989000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>52.808999999999997</v>
+        <v>15.696999999999999</v>
       </c>
       <c r="D9">
-        <v>748.125</v>
+        <v>333.113</v>
       </c>
       <c r="E9">
-        <v>576.5</v>
+        <v>228.60499999999999</v>
       </c>
       <c r="F9">
-        <v>437.78100000000001</v>
+        <v>179.255</v>
       </c>
       <c r="G9">
-        <v>1065.9839999999999</v>
+        <v>321.16199999999998</v>
       </c>
       <c r="H9">
-        <v>6327.5749999999998</v>
+        <v>3032.2420000000002</v>
       </c>
       <c r="I9">
-        <v>124.762</v>
+        <v>61.643999999999998</v>
       </c>
       <c r="J9">
-        <v>3668.047</v>
+        <v>1546.482</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>772.61500000000001</v>
+        <v>369.30599999999998</v>
       </c>
       <c r="O9">
-        <v>5028.45</v>
+        <v>2040.037</v>
       </c>
       <c r="P9">
-        <v>3739.4270000000001</v>
+        <v>1587.45</v>
       </c>
       <c r="Q9">
-        <v>164.35300000000001</v>
+        <v>1.542</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1299.125</v>
+        <v>992.20500000000004</v>
       </c>
       <c r="U9">
-        <v>334.58300000000003</v>
+        <v>27.597000000000001</v>
       </c>
       <c r="V9">
-        <v>88.546999999999997</v>
+        <v>74.3</v>
       </c>
       <c r="W9">
-        <v>-46.335999999999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>136.61699999999999</v>
+        <v>-23.827999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-2.33</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>52.808999999999997</v>
+        <v>15.696999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>25.494</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>758.46699999999998</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>572.20000000000005</v>
+        <v>225.416</v>
       </c>
       <c r="F10">
-        <v>420.05599999999998</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1024.0920000000001</v>
+        <v>367.04</v>
       </c>
       <c r="H10">
-        <v>6358.3389999999999</v>
+        <v>3230.6550000000002</v>
       </c>
       <c r="I10">
-        <v>168.12</v>
+        <v>76.114999999999995</v>
       </c>
       <c r="J10">
-        <v>3732.116</v>
+        <v>1662.365</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>904.95299999999997</v>
+        <v>427.96199999999999</v>
       </c>
       <c r="O10">
-        <v>5195.8909999999996</v>
+        <v>2223.6619999999998</v>
       </c>
       <c r="P10">
-        <v>3825.0030000000002</v>
+        <v>1745.875</v>
       </c>
       <c r="Q10">
-        <v>-91.168000000000006</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>17500</v>
+        <v>8800</v>
       </c>
       <c r="T10">
-        <v>1162.4480000000001</v>
+        <v>1006.9930000000001</v>
       </c>
       <c r="U10">
-        <v>243.41499999999999</v>
+        <v>56.292000000000002</v>
       </c>
       <c r="V10">
-        <v>131.999</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-46.537999999999997</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-115.47</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>25.494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>19.385999999999999</v>
+        <v>21.283999999999999</v>
       </c>
       <c r="D11">
-        <v>747.03099999999995</v>
+        <v>351.81099999999998</v>
       </c>
       <c r="E11">
-        <v>571.40200000000004</v>
+        <v>248.97300000000001</v>
       </c>
       <c r="F11">
-        <v>425.95499999999998</v>
+        <v>191.66</v>
       </c>
       <c r="G11">
-        <v>1001.136</v>
+        <v>339.25099999999998</v>
       </c>
       <c r="H11">
-        <v>6298.18</v>
+        <v>3268.87</v>
       </c>
       <c r="I11">
-        <v>168.59</v>
+        <v>72.781999999999996</v>
       </c>
       <c r="J11">
-        <v>3757.8530000000001</v>
+        <v>1679.8610000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-355.36700000000002</v>
+        <v>-30.978999999999999</v>
       </c>
       <c r="N11">
-        <v>844.57799999999997</v>
+        <v>396.94099999999997</v>
       </c>
       <c r="O11">
-        <v>5170.1030000000001</v>
+        <v>2224.817</v>
       </c>
       <c r="P11">
-        <v>3849.7060000000001</v>
+        <v>1723.7190000000001</v>
       </c>
       <c r="Q11">
-        <v>-13.416</v>
+        <v>-42.710999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1128.077</v>
+        <v>1044.0530000000001</v>
       </c>
       <c r="U11">
-        <v>229.999</v>
+        <v>13.581</v>
       </c>
       <c r="V11">
-        <v>106.605</v>
+        <v>36.524000000000001</v>
       </c>
       <c r="W11">
-        <v>-51.661999999999999</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-14.087999999999999</v>
+        <v>-15.362</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-1.357</v>
       </c>
       <c r="AA11">
-        <v>19.385999999999999</v>
+        <v>21.283999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>26.167999999999999</v>
+        <v>20.132999999999999</v>
       </c>
       <c r="D12">
-        <v>754.39599999999996</v>
+        <v>359.27</v>
       </c>
       <c r="E12">
-        <v>581.48099999999999</v>
+        <v>239.98699999999999</v>
       </c>
       <c r="F12">
-        <v>433.34</v>
+        <v>197.238</v>
       </c>
       <c r="G12">
-        <v>1045.982</v>
+        <v>486.72899999999998</v>
       </c>
       <c r="H12">
-        <v>6334.8190000000004</v>
+        <v>3476.2150000000001</v>
       </c>
       <c r="I12">
-        <v>141.68600000000001</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="J12">
-        <v>3614.018</v>
+        <v>1822.375</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1072.925</v>
+        <v>423.02600000000001</v>
       </c>
       <c r="O12">
-        <v>5241.28</v>
+        <v>2406.1990000000001</v>
       </c>
       <c r="P12">
-        <v>3938.7</v>
+        <v>1888.396</v>
       </c>
       <c r="Q12">
-        <v>28.867000000000001</v>
+        <v>164.28200000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1093.539</v>
+        <v>1070.0160000000001</v>
       </c>
       <c r="U12">
-        <v>258.86599999999999</v>
+        <v>177.863</v>
       </c>
       <c r="V12">
-        <v>107.29600000000001</v>
+        <v>94.132999999999996</v>
       </c>
       <c r="W12">
-        <v>-51.646999999999998</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>41.006</v>
+        <v>135.703</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>26.366</v>
+        <v>20.132999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>3.8490000000000002</v>
+        <v>14.794</v>
       </c>
       <c r="D13">
-        <v>755.31399999999996</v>
+        <v>381.75799999999998</v>
       </c>
       <c r="E13">
-        <v>614.649</v>
+        <v>276.39100000000002</v>
       </c>
       <c r="F13">
-        <v>444.649</v>
+        <v>210.40299999999999</v>
       </c>
       <c r="G13">
-        <v>942.47799999999995</v>
+        <v>396.11799999999999</v>
       </c>
       <c r="H13">
-        <v>6380.7790000000005</v>
+        <v>3739.5410000000002</v>
       </c>
       <c r="I13">
-        <v>164.96899999999999</v>
+        <v>77.957999999999998</v>
       </c>
       <c r="J13">
-        <v>3973.799</v>
+        <v>2002.16</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>828.5</v>
+        <v>473.12599999999998</v>
       </c>
       <c r="O13">
-        <v>5308.6130000000003</v>
+        <v>2645.0050000000001</v>
       </c>
       <c r="P13">
-        <v>4025.3319999999999</v>
+        <v>2077.59</v>
       </c>
       <c r="Q13">
-        <v>-86.834999999999994</v>
+        <v>-154.31899999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1072.1659999999999</v>
+        <v>1094.5360000000001</v>
       </c>
       <c r="U13">
-        <v>172.03100000000001</v>
+        <v>23.544</v>
       </c>
       <c r="V13">
-        <v>120.681</v>
+        <v>52.962000000000003</v>
       </c>
       <c r="W13">
-        <v>-51.718000000000004</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-76.722999999999999</v>
+        <v>192.69499999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3.8490000000000002</v>
+        <v>14.794</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>47.058999999999997</v>
+        <v>28.425999999999998</v>
       </c>
       <c r="D14">
-        <v>768.20699999999999</v>
+        <v>408.49</v>
       </c>
       <c r="E14">
-        <v>616.79700000000003</v>
+        <v>279.8</v>
       </c>
       <c r="F14">
-        <v>435.52600000000001</v>
+        <v>221.28100000000001</v>
       </c>
       <c r="G14">
-        <v>933.60699999999997</v>
+        <v>471.58300000000003</v>
       </c>
       <c r="H14">
-        <v>6653.0050000000001</v>
+        <v>3892.0990000000002</v>
       </c>
       <c r="I14">
-        <v>216.45599999999999</v>
+        <v>87.006</v>
       </c>
       <c r="J14">
-        <v>4119.1390000000001</v>
+        <v>1974.1469999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>969.101</v>
+        <v>584.745</v>
       </c>
       <c r="O14">
-        <v>5601.2709999999997</v>
+        <v>2750.2</v>
       </c>
       <c r="P14">
-        <v>4171.7219999999998</v>
+        <v>2120.5610000000001</v>
       </c>
       <c r="Q14">
-        <v>-51.505000000000003</v>
+        <v>51.139000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="T14">
-        <v>1051.7339999999999</v>
+        <v>1141.8989999999999</v>
       </c>
       <c r="U14">
-        <v>120.526</v>
+        <v>74.683000000000007</v>
       </c>
       <c r="V14">
-        <v>172.964</v>
+        <v>105.074</v>
       </c>
       <c r="W14">
-        <v>-51.771000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>68.369</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>47.058999999999997</v>
+        <v>28.425999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>41.667000000000002</v>
+        <v>22.997</v>
       </c>
       <c r="D15">
-        <v>770.12599999999998</v>
+        <v>433.92200000000003</v>
       </c>
       <c r="E15">
-        <v>626.11599999999999</v>
+        <v>305.00099999999998</v>
       </c>
       <c r="F15">
-        <v>434.98099999999999</v>
+        <v>235.61199999999999</v>
       </c>
       <c r="G15">
-        <v>987.62900000000002</v>
+        <v>429.71199999999999</v>
       </c>
       <c r="H15">
-        <v>6706.6170000000002</v>
+        <v>4008.8890000000001</v>
       </c>
       <c r="I15">
-        <v>167.637</v>
+        <v>82.677000000000007</v>
       </c>
       <c r="J15">
-        <v>4288.6049999999996</v>
+        <v>2262.768</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-2.3170000000000002</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-2701.9659999999999</v>
+        <v>-573.23199999999997</v>
       </c>
       <c r="N15">
-        <v>867.85</v>
+        <v>435.548</v>
       </c>
       <c r="O15">
-        <v>5655.4459999999999</v>
+        <v>2908.346</v>
       </c>
       <c r="P15">
-        <v>4343.6890000000003</v>
+        <v>2297.1190000000001</v>
       </c>
       <c r="Q15">
-        <v>49.38</v>
+        <v>-43.704999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1051.171</v>
+        <v>1100.5429999999999</v>
       </c>
       <c r="U15">
-        <v>169.90600000000001</v>
+        <v>30.978000000000002</v>
       </c>
       <c r="V15">
-        <v>55.640999999999998</v>
+        <v>41.607999999999997</v>
       </c>
       <c r="W15">
-        <v>-52.734999999999999</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>120.839</v>
+        <v>126.71</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>41.667000000000002</v>
+        <v>22.997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>271.637</v>
+        <v>22.856999999999999</v>
       </c>
       <c r="D16">
-        <v>786.89200000000005</v>
+        <v>445.41</v>
       </c>
       <c r="E16">
-        <v>636.97799999999995</v>
+        <v>322.44400000000002</v>
       </c>
       <c r="F16">
-        <v>449.93099999999998</v>
+        <v>244.583</v>
       </c>
       <c r="G16">
-        <v>962.86800000000005</v>
+        <v>461.387</v>
       </c>
       <c r="H16">
-        <v>6735.1239999999998</v>
+        <v>4066.8870000000002</v>
       </c>
       <c r="I16">
-        <v>162.036</v>
+        <v>85.153999999999996</v>
       </c>
       <c r="J16">
-        <v>4297.942</v>
+        <v>2260.473</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>901.70799999999997</v>
+        <v>450.52199999999999</v>
       </c>
       <c r="O16">
-        <v>5437.9740000000002</v>
+        <v>2923.6790000000001</v>
       </c>
       <c r="P16">
-        <v>4354.5460000000003</v>
+        <v>2278.8539999999998</v>
       </c>
       <c r="Q16">
-        <v>-24.562999999999999</v>
+        <v>9.0280000000000005</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1297.1500000000001</v>
+        <v>1143.2080000000001</v>
       </c>
       <c r="U16">
-        <v>145.34299999999999</v>
+        <v>40.006</v>
       </c>
       <c r="V16">
-        <v>139.96</v>
+        <v>88.129000000000005</v>
       </c>
       <c r="W16">
-        <v>-52.125999999999998</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-61.012</v>
+        <v>-4.2709999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>271.637</v>
+        <v>22.856999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>6.6000000000000003E-2</v>
+        <v>18.45</v>
       </c>
       <c r="D17">
-        <v>782.697</v>
+        <v>459.33</v>
       </c>
       <c r="E17">
-        <v>618.99599999999998</v>
+        <v>343.94099999999997</v>
       </c>
       <c r="F17">
-        <v>447.19099999999997</v>
+        <v>249.53299999999999</v>
       </c>
       <c r="G17">
-        <v>976.38599999999997</v>
+        <v>479.62799999999999</v>
       </c>
       <c r="H17">
-        <v>6636.3389999999999</v>
+        <v>4206.2280000000001</v>
       </c>
       <c r="I17">
-        <v>141.64500000000001</v>
+        <v>96.619</v>
       </c>
       <c r="J17">
-        <v>4331.6859999999997</v>
+        <v>2330.1550000000002</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1598.308</v>
+        <v>470.37700000000001</v>
       </c>
       <c r="O17">
-        <v>6168.6769999999997</v>
+        <v>3029.38</v>
       </c>
       <c r="P17">
-        <v>4392.4849999999997</v>
+        <v>2348.078</v>
       </c>
       <c r="Q17">
-        <v>38.645000000000003</v>
+        <v>4.4219999999999997</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>467.66199999999998</v>
+        <v>1176.848</v>
       </c>
       <c r="U17">
-        <v>183.988</v>
+        <v>44.427999999999997</v>
       </c>
       <c r="V17">
-        <v>106.251</v>
+        <v>79.242000000000004</v>
       </c>
       <c r="W17">
-        <v>-52.156999999999996</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>35.006</v>
+        <v>56.106000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>6.6000000000000003E-2</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>12.749000000000001</v>
+        <v>29.887</v>
       </c>
       <c r="D18">
-        <v>777.97799999999995</v>
+        <v>478.92700000000002</v>
       </c>
       <c r="E18">
-        <v>604.26499999999999</v>
+        <v>354.43400000000003</v>
       </c>
       <c r="F18">
-        <v>442.18200000000002</v>
+        <v>263.96199999999999</v>
       </c>
       <c r="G18">
-        <v>917.71900000000005</v>
+        <v>501.154</v>
       </c>
       <c r="H18">
-        <v>6523.2650000000003</v>
+        <v>4442.3869999999997</v>
       </c>
       <c r="I18">
-        <v>203.01400000000001</v>
+        <v>103.41500000000001</v>
       </c>
       <c r="J18">
-        <v>4564.3590000000004</v>
+        <v>2438.587</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>856.73599999999999</v>
+        <v>515.46299999999997</v>
       </c>
       <c r="O18">
-        <v>5653.31</v>
+        <v>3210.7739999999999</v>
       </c>
       <c r="P18">
-        <v>4616.4539999999997</v>
+        <v>2485.172</v>
       </c>
       <c r="Q18">
-        <v>-58.055</v>
+        <v>-12.486000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="T18">
-        <v>869.95500000000004</v>
+        <v>1231.6130000000001</v>
       </c>
       <c r="U18">
-        <v>125.93300000000001</v>
+        <v>31.942</v>
       </c>
       <c r="V18">
-        <v>171.096</v>
+        <v>96.385000000000005</v>
       </c>
       <c r="W18">
-        <v>-245.28</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-74.975999999999999</v>
+        <v>98.024000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-0.85799999999999998</v>
       </c>
       <c r="AA18">
-        <v>12.749000000000001</v>
+        <v>29.887</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>41.095999999999997</v>
+        <v>22.949000000000002</v>
       </c>
       <c r="D19">
-        <v>749.28599999999994</v>
+        <v>501.40600000000001</v>
       </c>
       <c r="E19">
-        <v>590.02599999999995</v>
+        <v>376.86599999999999</v>
       </c>
       <c r="F19">
-        <v>427.63200000000001</v>
+        <v>270.77800000000002</v>
       </c>
       <c r="G19">
-        <v>887.47299999999996</v>
+        <v>512.32399999999996</v>
       </c>
       <c r="H19">
-        <v>6371.4539999999997</v>
+        <v>4507.93</v>
       </c>
       <c r="I19">
-        <v>184.40600000000001</v>
+        <v>101.068</v>
       </c>
       <c r="J19">
-        <v>4667.3590000000004</v>
+        <v>2448.5259999999998</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.38800000000000001</v>
+        <v>-1.704</v>
       </c>
       <c r="M19">
-        <v>-2282.261</v>
+        <v>-115.423</v>
       </c>
       <c r="N19">
-        <v>720.33100000000002</v>
+        <v>533.08299999999997</v>
       </c>
       <c r="O19">
-        <v>5614.9520000000002</v>
+        <v>3247.5889999999999</v>
       </c>
       <c r="P19">
-        <v>4721.8419999999996</v>
+        <v>2499.413</v>
       </c>
       <c r="Q19">
-        <v>-6.3280000000000003</v>
+        <v>-3.1659999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>756.50199999999995</v>
+        <v>1260.3409999999999</v>
       </c>
       <c r="U19">
-        <v>119.605</v>
+        <v>28.776</v>
       </c>
       <c r="V19">
-        <v>5.5119999999999996</v>
+        <v>63.414000000000001</v>
       </c>
       <c r="W19">
-        <v>-102.539</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>68.863</v>
+        <v>27.454000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>41.095999999999997</v>
+        <v>22.949000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>53.33</v>
+        <v>25.41</v>
       </c>
       <c r="D20">
-        <v>759.73400000000004</v>
+        <v>511.92200000000003</v>
       </c>
       <c r="E20">
-        <v>596.25199999999995</v>
+        <v>375.839</v>
       </c>
       <c r="F20">
-        <v>433.45100000000002</v>
+        <v>283.834</v>
       </c>
       <c r="G20">
-        <v>874.72699999999998</v>
+        <v>511.298</v>
       </c>
       <c r="H20">
-        <v>6422.5770000000002</v>
+        <v>4540.4549999999999</v>
       </c>
       <c r="I20">
-        <v>162.238</v>
+        <v>115.093</v>
       </c>
       <c r="J20">
-        <v>4718.915</v>
+        <v>2406.1959999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>752.13499999999999</v>
+        <v>545.97799999999995</v>
       </c>
       <c r="O20">
-        <v>5700.3519999999999</v>
+        <v>3244.297</v>
       </c>
       <c r="P20">
-        <v>4789.1499999999996</v>
+        <v>2429.7620000000002</v>
       </c>
       <c r="Q20">
-        <v>-2.5070000000000001</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>722.22500000000002</v>
+        <v>1296.1579999999999</v>
       </c>
       <c r="U20">
-        <v>117.098</v>
+        <v>29.516999999999999</v>
       </c>
       <c r="V20">
-        <v>174.226</v>
+        <v>127.941</v>
       </c>
       <c r="W20">
-        <v>-100.69</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-104.33199999999999</v>
+        <v>-48.716000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>53.33</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>23.11</v>
+        <v>36.377000000000002</v>
       </c>
       <c r="D21">
-        <v>746.529</v>
+        <v>526.47199999999998</v>
       </c>
       <c r="E21">
-        <v>573.88900000000001</v>
+        <v>394.59899999999999</v>
       </c>
       <c r="F21">
-        <v>428.86599999999999</v>
+        <v>289.05799999999999</v>
       </c>
       <c r="G21">
-        <v>1228.298</v>
+        <v>545.85199999999998</v>
       </c>
       <c r="H21">
-        <v>6669.8220000000001</v>
+        <v>4552.49</v>
       </c>
       <c r="I21">
-        <v>156.845</v>
+        <v>111.68300000000001</v>
       </c>
       <c r="J21">
-        <v>4920.5680000000002</v>
+        <v>2382.1390000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>910.77700000000004</v>
+        <v>527.84100000000001</v>
       </c>
       <c r="O21">
-        <v>6050.0450000000001</v>
+        <v>3219.0990000000002</v>
       </c>
       <c r="P21">
-        <v>5174.2939999999999</v>
+        <v>2408.442</v>
       </c>
       <c r="Q21">
-        <v>375.80099999999999</v>
+        <v>14.473000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>619.77700000000004</v>
+        <v>1333.3910000000001</v>
       </c>
       <c r="U21">
-        <v>492.899</v>
+        <v>43.99</v>
       </c>
       <c r="V21">
-        <v>140.357</v>
+        <v>87.506</v>
       </c>
       <c r="W21">
-        <v>-100.483</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>321.00900000000001</v>
+        <v>-9.5090000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>23.11</v>
+        <v>36.377000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>5.7050000000000001</v>
+        <v>26.363</v>
       </c>
       <c r="D22">
-        <v>752.42700000000002</v>
+        <v>538.35500000000002</v>
       </c>
       <c r="E22">
-        <v>564.40099999999995</v>
+        <v>408.56400000000002</v>
       </c>
       <c r="F22">
-        <v>428.00200000000001</v>
+        <v>296.24599999999998</v>
       </c>
       <c r="G22">
-        <v>857.91200000000003</v>
+        <v>554.16800000000001</v>
       </c>
       <c r="H22">
-        <v>6350.5870000000004</v>
+        <v>4766.1400000000003</v>
       </c>
       <c r="I22">
-        <v>219.59</v>
+        <v>148.23400000000001</v>
       </c>
       <c r="J22">
-        <v>4757.6099999999997</v>
+        <v>2503.5259999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>841.83100000000002</v>
+        <v>591.99599999999998</v>
       </c>
       <c r="O22">
-        <v>5821.98</v>
+        <v>3390.1439999999998</v>
       </c>
       <c r="P22">
-        <v>4845.6779999999999</v>
+        <v>2529.431</v>
       </c>
       <c r="Q22">
-        <v>-364.51799999999997</v>
+        <v>9.423</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>20000</v>
+        <v>15800</v>
       </c>
       <c r="T22">
-        <v>528.60699999999997</v>
+        <v>1375.9960000000001</v>
       </c>
       <c r="U22">
-        <v>128.381</v>
+        <v>53.412999999999997</v>
       </c>
       <c r="V22">
-        <v>221.66499999999999</v>
+        <v>98.314999999999998</v>
       </c>
       <c r="W22">
-        <v>-102.79600000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-394.05099999999999</v>
+        <v>112.22</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,122 +2591,122 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>5.7050000000000001</v>
+        <v>26.363</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>62.774000000000001</v>
+        <v>27.273</v>
       </c>
       <c r="D23">
-        <v>750.69</v>
+        <v>563.65700000000004</v>
       </c>
       <c r="E23">
-        <v>574.71699999999998</v>
+        <v>421.93599999999998</v>
       </c>
       <c r="F23">
-        <v>424.58499999999998</v>
+        <v>301.28899999999999</v>
       </c>
       <c r="G23">
-        <v>831.89599999999996</v>
+        <v>563.09299999999996</v>
       </c>
       <c r="H23">
-        <v>6422.3090000000002</v>
+        <v>4797.357</v>
       </c>
       <c r="I23">
-        <v>180.25899999999999</v>
+        <v>113.61199999999999</v>
       </c>
       <c r="J23">
-        <v>4931.2960000000003</v>
+        <v>2531.2669999999998</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.41399999999999998</v>
+        <v>-1.27</v>
       </c>
       <c r="M23">
-        <v>-2384.2150000000001</v>
+        <v>-177.44499999999999</v>
       </c>
       <c r="N23">
-        <v>748.49300000000005</v>
+        <v>550.53700000000003</v>
       </c>
       <c r="O23">
-        <v>5901.165</v>
+        <v>3390.636</v>
       </c>
       <c r="P23">
-        <v>5021.2700000000004</v>
+        <v>2564.4850000000001</v>
       </c>
       <c r="Q23">
-        <v>-10.436</v>
+        <v>-10.861000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>521.14400000000001</v>
+        <v>1406.721</v>
       </c>
       <c r="U23">
-        <v>117.94499999999999</v>
+        <v>42.552</v>
       </c>
       <c r="V23">
-        <v>81.117999999999995</v>
+        <v>61.997999999999998</v>
       </c>
       <c r="W23">
-        <v>-104.931</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>19.260999999999999</v>
+        <v>31.19</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-3.0979999999999999</v>
       </c>
       <c r="AA23">
-        <v>62.774000000000001</v>
+        <v>27.273</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>37.841999999999999</v>
       </c>
       <c r="D24">
-        <v>883.74800000000005</v>
+        <v>581.56799999999998</v>
       </c>
       <c r="E24">
-        <v>710.52599999999995</v>
+        <v>440.28500000000003</v>
       </c>
       <c r="F24">
-        <v>488.43</v>
+        <v>322.27800000000002</v>
       </c>
       <c r="G24">
-        <v>1289.3699999999999</v>
+        <v>589.596</v>
       </c>
       <c r="H24">
-        <v>9741.0540000000001</v>
+        <v>4956.9120000000003</v>
       </c>
       <c r="I24">
-        <v>220.119</v>
+        <v>139.56399999999999</v>
       </c>
       <c r="J24">
-        <v>6103.058</v>
+        <v>2541.9960000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>982.029</v>
+        <v>609.21400000000006</v>
       </c>
       <c r="O24">
-        <v>7495.0240000000003</v>
+        <v>3488.2260000000001</v>
       </c>
       <c r="P24">
-        <v>6215.567</v>
+        <v>2607.7579999999998</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2246.0300000000002</v>
+        <v>1468.6859999999999</v>
       </c>
       <c r="U24">
-        <v>236.989</v>
+        <v>40.951999999999998</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>111.73699999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>17.056000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="AA24">
-        <v>-13.968</v>
+        <v>37.841999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>7.08</v>
+        <v>26.613</v>
       </c>
       <c r="D25">
-        <v>942.822</v>
+        <v>595.61</v>
       </c>
       <c r="E25">
-        <v>700.23800000000006</v>
+        <v>457.99599999999998</v>
       </c>
       <c r="F25">
-        <v>517.471</v>
+        <v>318.38299999999998</v>
       </c>
       <c r="G25">
-        <v>1467.3409999999999</v>
+        <v>619.91899999999998</v>
       </c>
       <c r="H25">
-        <v>9904.9159999999993</v>
+        <v>5058.9470000000001</v>
       </c>
       <c r="I25">
-        <v>233.971</v>
+        <v>137.33099999999999</v>
       </c>
       <c r="J25">
-        <v>6338.0240000000003</v>
+        <v>2575.0810000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1024.027</v>
+        <v>616.18600000000004</v>
       </c>
       <c r="O25">
-        <v>7754.6620000000003</v>
+        <v>3550.3209999999999</v>
       </c>
       <c r="P25">
-        <v>6459.2269999999999</v>
+        <v>2634.8290000000002</v>
       </c>
       <c r="Q25">
-        <v>221.13900000000001</v>
+        <v>4.4370000000000003</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2150.2539999999999</v>
+        <v>1508.626</v>
       </c>
       <c r="U25">
-        <v>458.12799999999999</v>
+        <v>45.389000000000003</v>
       </c>
       <c r="V25">
-        <v>215.84200000000001</v>
+        <v>105.48</v>
       </c>
       <c r="W25">
-        <v>-127.866</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>128.398</v>
+        <v>10.994999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>7.08</v>
+        <v>26.613</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>48.938000000000002</v>
+        <v>37.134999999999998</v>
       </c>
       <c r="D26">
-        <v>934.19299999999998</v>
+        <v>609.50699999999995</v>
       </c>
       <c r="E26">
-        <v>691.24900000000002</v>
+        <v>473.36599999999999</v>
       </c>
       <c r="F26">
-        <v>525.15300000000002</v>
+        <v>334.12400000000002</v>
       </c>
       <c r="G26">
-        <v>1112.107</v>
+        <v>679.721</v>
       </c>
       <c r="H26">
-        <v>9486.7999999999993</v>
+        <v>5209.5209999999997</v>
       </c>
       <c r="I26">
-        <v>222.197</v>
+        <v>148.46100000000001</v>
       </c>
       <c r="J26">
-        <v>6078.2060000000001</v>
+        <v>2605.7109999999998</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1046.557</v>
+        <v>638.64700000000005</v>
       </c>
       <c r="O26">
-        <v>7495.4319999999998</v>
+        <v>3650.9580000000001</v>
       </c>
       <c r="P26">
-        <v>6251.1809999999996</v>
+        <v>2668.8159999999998</v>
       </c>
       <c r="Q26">
-        <v>-221.64400000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>24000</v>
+        <v>18600</v>
       </c>
       <c r="T26">
-        <v>1991.3679999999999</v>
+        <v>1558.5630000000001</v>
       </c>
       <c r="U26">
-        <v>236.48400000000001</v>
+        <v>45.369</v>
       </c>
       <c r="V26">
-        <v>121.303</v>
+        <v>95.066999999999993</v>
       </c>
       <c r="W26">
-        <v>-145.40899999999999</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-315.964</v>
+        <v>23.492999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-2.8140000000000001</v>
       </c>
       <c r="AA26">
-        <v>48.938000000000002</v>
+        <v>37.134999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>58.125</v>
+        <v>34.707000000000001</v>
       </c>
       <c r="D27">
-        <v>938.87599999999998</v>
+        <v>632.51199999999994</v>
       </c>
       <c r="E27">
-        <v>721.03</v>
+        <v>485.68700000000001</v>
       </c>
       <c r="F27">
-        <v>520.05600000000004</v>
+        <v>337.50700000000001</v>
       </c>
       <c r="G27">
-        <v>1198.6369999999999</v>
+        <v>667.59199999999998</v>
       </c>
       <c r="H27">
-        <v>9672.134</v>
+        <v>5269.7309999999998</v>
       </c>
       <c r="I27">
-        <v>239.89400000000001</v>
+        <v>132.92599999999999</v>
       </c>
       <c r="J27">
-        <v>5922.7479999999996</v>
+        <v>2592.7190000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-2.5619999999999998</v>
+        <v>-574.69500000000005</v>
       </c>
       <c r="M27">
-        <v>-2682.348</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1418.4690000000001</v>
+        <v>665.69500000000005</v>
       </c>
       <c r="O27">
-        <v>7701.0519999999997</v>
+        <v>3676.7190000000001</v>
       </c>
       <c r="P27">
-        <v>6343.9750000000004</v>
+        <v>2692.6019999999999</v>
       </c>
       <c r="Q27">
-        <v>59.143999999999998</v>
+        <v>16.111999999999998</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1971.0820000000001</v>
+        <v>1593.0119999999999</v>
       </c>
       <c r="U27">
-        <v>295.62799999999999</v>
+        <v>61.481000000000002</v>
       </c>
       <c r="V27">
-        <v>121.837</v>
+        <v>101.965</v>
       </c>
       <c r="W27">
-        <v>-2.06</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>36.661999999999999</v>
+        <v>8.8360000000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>58.125</v>
+        <v>34.707000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>78.63</v>
+        <v>39.052</v>
       </c>
       <c r="D28">
-        <v>949.80600000000004</v>
+        <v>668.68899999999996</v>
       </c>
       <c r="E28">
-        <v>730.36599999999999</v>
+        <v>522.44799999999998</v>
       </c>
       <c r="F28">
-        <v>540.59500000000003</v>
+        <v>360.726</v>
       </c>
       <c r="G28">
-        <v>1205.876</v>
+        <v>712.96199999999999</v>
       </c>
       <c r="H28">
-        <v>9814.6929999999993</v>
+        <v>5713.7960000000003</v>
       </c>
       <c r="I28">
-        <v>247.13399999999999</v>
+        <v>142.714</v>
       </c>
       <c r="J28">
-        <v>6028.9849999999997</v>
+        <v>2971.654</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1474.606</v>
+        <v>632.16800000000001</v>
       </c>
       <c r="O28">
-        <v>7889.3119999999999</v>
+        <v>4055.5050000000001</v>
       </c>
       <c r="P28">
-        <v>6452.2539999999999</v>
+        <v>3003.4589999999998</v>
       </c>
       <c r="Q28">
-        <v>-4.609</v>
+        <v>33.482999999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1925.3810000000001</v>
+        <v>1658.2909999999999</v>
       </c>
       <c r="U28">
-        <v>291.01900000000001</v>
+        <v>94.963999999999999</v>
       </c>
       <c r="V28">
-        <v>197.84</v>
+        <v>104.798</v>
       </c>
       <c r="W28">
-        <v>-145.333</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-98.245999999999995</v>
+        <v>262.45800000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>78.63</v>
+        <v>39.052</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>24.344999999999999</v>
+        <v>51.334000000000003</v>
       </c>
       <c r="D29">
-        <v>965.66099999999994</v>
+        <v>701.83299999999997</v>
       </c>
       <c r="E29">
-        <v>784.88400000000001</v>
+        <v>560.08500000000004</v>
       </c>
       <c r="F29">
-        <v>550.39300000000003</v>
+        <v>379.23500000000001</v>
       </c>
       <c r="G29">
-        <v>1328.2239999999999</v>
+        <v>751.39700000000005</v>
       </c>
       <c r="H29">
-        <v>10260.005999999999</v>
+        <v>5903.183</v>
       </c>
       <c r="I29">
-        <v>252.95500000000001</v>
+        <v>139.452</v>
       </c>
       <c r="J29">
-        <v>6700.0940000000001</v>
+        <v>3074.299</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1232.3689999999999</v>
+        <v>657.46299999999997</v>
       </c>
       <c r="O29">
-        <v>8323.9359999999997</v>
+        <v>4177.567</v>
       </c>
       <c r="P29">
-        <v>6880.4840000000004</v>
+        <v>3102.68</v>
       </c>
       <c r="Q29">
-        <v>46.866999999999997</v>
+        <v>-4.2130000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1936.07</v>
+        <v>1725.616</v>
       </c>
       <c r="U29">
-        <v>337.88600000000002</v>
+        <v>90.751000000000005</v>
       </c>
       <c r="V29">
-        <v>199.19200000000001</v>
+        <v>121.117</v>
       </c>
       <c r="W29">
-        <v>-145.58699999999999</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>103.06399999999999</v>
+        <v>44.743000000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>24.344999999999999</v>
+        <v>51.334000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>22.721</v>
+        <v>28.001000000000001</v>
       </c>
       <c r="D30">
-        <v>991.23500000000001</v>
+        <v>727.00099999999998</v>
       </c>
       <c r="E30">
-        <v>835.74199999999996</v>
+        <v>564.04899999999998</v>
       </c>
       <c r="F30">
-        <v>569.70899999999995</v>
+        <v>392.447</v>
       </c>
       <c r="G30">
-        <v>1950.3150000000001</v>
+        <v>822.39599999999996</v>
       </c>
       <c r="H30">
-        <v>10972.402</v>
+        <v>6307.9210000000003</v>
       </c>
       <c r="I30">
-        <v>289.137</v>
+        <v>208.672</v>
       </c>
       <c r="J30">
-        <v>6896.9709999999995</v>
+        <v>3232.848</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1330.173</v>
+        <v>765.67700000000002</v>
       </c>
       <c r="O30">
-        <v>8582.1419999999998</v>
+        <v>4503.3770000000004</v>
       </c>
       <c r="P30">
-        <v>7043.2709999999997</v>
+        <v>3266.288</v>
       </c>
       <c r="Q30">
-        <v>587.81299999999999</v>
+        <v>34.856000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>24000</v>
+        <v>20100</v>
       </c>
       <c r="T30">
-        <v>2390.2600000000002</v>
+        <v>1804.5440000000001</v>
       </c>
       <c r="U30">
-        <v>925.69899999999996</v>
+        <v>125.607</v>
       </c>
       <c r="V30">
-        <v>202.09899999999999</v>
+        <v>156.76400000000001</v>
       </c>
       <c r="W30">
-        <v>-147.01900000000001</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>498.94499999999999</v>
+        <v>140.96799999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>22.721</v>
+        <v>28.001000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>44.683999999999997</v>
+        <v>33.481999999999999</v>
       </c>
       <c r="D31">
-        <v>1042.4580000000001</v>
+        <v>749.38400000000001</v>
       </c>
       <c r="E31">
-        <v>859.10599999999999</v>
+        <v>586.45799999999997</v>
       </c>
       <c r="F31">
-        <v>594.03300000000002</v>
+        <v>401.63299999999998</v>
       </c>
       <c r="G31">
-        <v>1524.873</v>
+        <v>860.25699999999995</v>
       </c>
       <c r="H31">
-        <v>11998.148999999999</v>
+        <v>6326.5789999999997</v>
       </c>
       <c r="I31">
-        <v>251.214</v>
+        <v>151.22200000000001</v>
       </c>
       <c r="J31">
-        <v>8021.058</v>
+        <v>3279.2170000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="M31">
-        <v>-4410.6559999999999</v>
+        <v>-294.72800000000001</v>
       </c>
       <c r="N31">
-        <v>1231.0619999999999</v>
+        <v>681.30499999999995</v>
       </c>
       <c r="O31">
-        <v>9643.9969999999994</v>
+        <v>4482.1620000000003</v>
       </c>
       <c r="P31">
-        <v>8158.2560000000003</v>
+        <v>3305.0070000000001</v>
       </c>
       <c r="Q31">
-        <v>-483.20800000000003</v>
+        <v>-18.183</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2354.152</v>
+        <v>1844.4169999999999</v>
       </c>
       <c r="U31">
-        <v>442.49099999999999</v>
+        <v>107.42400000000001</v>
       </c>
       <c r="V31">
-        <v>91.567999999999998</v>
+        <v>72.521000000000001</v>
       </c>
       <c r="W31">
-        <v>-169.006</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>985.25199999999995</v>
+        <v>10.811999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>38.459000000000003</v>
+        <v>33.481999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>85.536000000000001</v>
+        <v>35.886000000000003</v>
       </c>
       <c r="D32">
-        <v>1060.8230000000001</v>
+        <v>768.85699999999997</v>
       </c>
       <c r="E32">
-        <v>867.04100000000005</v>
+        <v>603.41899999999998</v>
       </c>
       <c r="F32">
-        <v>611.18600000000004</v>
+        <v>421.88600000000002</v>
       </c>
       <c r="G32">
-        <v>1244.3340000000001</v>
+        <v>955.149</v>
       </c>
       <c r="H32">
-        <v>11812.534</v>
+        <v>6508.61</v>
       </c>
       <c r="I32">
-        <v>293.29300000000001</v>
+        <v>147.441</v>
       </c>
       <c r="J32">
-        <v>7961.7610000000004</v>
+        <v>3318.95</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1273.1030000000001</v>
+        <v>755.60799999999995</v>
       </c>
       <c r="O32">
-        <v>9659.7469999999994</v>
+        <v>4603.9979999999996</v>
       </c>
       <c r="P32">
-        <v>8085.5789999999997</v>
+        <v>3417.7890000000002</v>
       </c>
       <c r="Q32">
-        <v>-254.29900000000001</v>
+        <v>95.772999999999996</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2152.7869999999998</v>
+        <v>1904.6120000000001</v>
       </c>
       <c r="U32">
-        <v>188.19200000000001</v>
+        <v>203.197</v>
       </c>
       <c r="V32">
-        <v>301.76100000000002</v>
+        <v>117.11199999999999</v>
       </c>
       <c r="W32">
-        <v>-168.04599999999999</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-186.499</v>
+        <v>107.17700000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-1.7090000000000001</v>
       </c>
       <c r="AA32">
-        <v>91.760999999999996</v>
+        <v>35.886000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>65.869</v>
+        <v>11.314</v>
       </c>
       <c r="D33">
-        <v>1060.991</v>
+        <v>784.33799999999997</v>
       </c>
       <c r="E33">
-        <v>847.452</v>
+        <v>610.47199999999998</v>
       </c>
       <c r="F33">
-        <v>615.86500000000001</v>
+        <v>432.08699999999999</v>
       </c>
       <c r="G33">
-        <v>1215.9749999999999</v>
+        <v>1082.3</v>
       </c>
       <c r="H33">
-        <v>11805.968999999999</v>
+        <v>6637.6940000000004</v>
       </c>
       <c r="I33">
-        <v>285.81</v>
+        <v>139.11699999999999</v>
       </c>
       <c r="J33">
-        <v>8109.1790000000001</v>
+        <v>3393.3670000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1247.3520000000001</v>
+        <v>781.58500000000004</v>
       </c>
       <c r="O33">
-        <v>9772.348</v>
+        <v>4736.8519999999999</v>
       </c>
       <c r="P33">
-        <v>8230.8739999999998</v>
+        <v>3415.7339999999999</v>
       </c>
       <c r="Q33">
-        <v>9.484</v>
+        <v>115.047</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2033.6210000000001</v>
+        <v>1900.8420000000001</v>
       </c>
       <c r="U33">
-        <v>197.67599999999999</v>
+        <v>318.24400000000003</v>
       </c>
       <c r="V33">
-        <v>231.214</v>
+        <v>160.77699999999999</v>
       </c>
       <c r="W33">
-        <v>-168.351</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-29.193999999999999</v>
+        <v>67.144999999999996</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>65.869</v>
+        <v>11.314</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>157.84399999999999</v>
+        <v>1.355</v>
       </c>
       <c r="D34">
-        <v>1061.489</v>
+        <v>752.55499999999995</v>
       </c>
       <c r="E34">
-        <v>846.88900000000001</v>
+        <v>552.83000000000004</v>
       </c>
       <c r="F34">
-        <v>610.72299999999996</v>
+        <v>417.50900000000001</v>
       </c>
       <c r="G34">
-        <v>1208.114</v>
+        <v>976.39200000000005</v>
       </c>
       <c r="H34">
-        <v>11857.218000000001</v>
+        <v>6356.8540000000003</v>
       </c>
       <c r="I34">
-        <v>318.76499999999999</v>
+        <v>154.614</v>
       </c>
       <c r="J34">
-        <v>7650.73</v>
+        <v>3045.7080000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1490.7750000000001</v>
+        <v>729.59699999999998</v>
       </c>
       <c r="O34">
-        <v>9924.223</v>
+        <v>4550.5259999999998</v>
       </c>
       <c r="P34">
-        <v>8143.7960000000003</v>
+        <v>3243.2150000000001</v>
       </c>
       <c r="Q34">
-        <v>-32.191000000000003</v>
+        <v>-39.874000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>26200</v>
+        <v>21000</v>
       </c>
       <c r="T34">
-        <v>1932.9949999999999</v>
+        <v>1806.328</v>
       </c>
       <c r="U34">
-        <v>165.48500000000001</v>
+        <v>278.37</v>
       </c>
       <c r="V34">
-        <v>311.00599999999997</v>
+        <v>186.619</v>
       </c>
       <c r="W34">
-        <v>-168.232</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-218.881</v>
+        <v>-97.766000000000005</v>
       </c>
       <c r="Y34">
-        <v>366.66</v>
+        <v>161.756</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>157.84399999999999</v>
+        <v>1.355</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>29.561</v>
+        <v>28.798999999999999</v>
       </c>
       <c r="D35">
-        <v>1053.8630000000001</v>
+        <v>723.346</v>
       </c>
       <c r="E35">
-        <v>837.52099999999996</v>
+        <v>562.65599999999995</v>
       </c>
       <c r="F35">
-        <v>593.21699999999998</v>
+        <v>406.36599999999999</v>
       </c>
       <c r="G35">
-        <v>1209.8499999999999</v>
+        <v>973.93799999999999</v>
       </c>
       <c r="H35">
-        <v>13689.362999999999</v>
+        <v>6244.5640000000003</v>
       </c>
       <c r="I35">
-        <v>283.709</v>
+        <v>121.211</v>
       </c>
       <c r="J35">
-        <v>8027.009</v>
+        <v>3130.3629999999998</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1351.242</v>
+        <v>-61.889000000000003</v>
       </c>
       <c r="N35">
-        <v>1515.133</v>
+        <v>663.71299999999997</v>
       </c>
       <c r="O35">
-        <v>11855.527</v>
+        <v>4426.5259999999998</v>
       </c>
       <c r="P35">
-        <v>10353.824000000001</v>
+        <v>3160.395</v>
       </c>
       <c r="Q35">
-        <v>-4.01</v>
+        <v>-6.5389999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1833.836</v>
+        <v>1818.038</v>
       </c>
       <c r="U35">
-        <v>161.47499999999999</v>
+        <v>271.83100000000002</v>
       </c>
       <c r="V35">
-        <v>117.06699999999999</v>
+        <v>127.492</v>
       </c>
       <c r="W35">
-        <v>-178.023</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>187.73599999999999</v>
+        <v>-56.11</v>
       </c>
       <c r="Y35">
-        <v>1995.3869999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-19.222000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>29.561</v>
+        <v>28.798999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>92.441000000000003</v>
+        <v>87.638000000000005</v>
       </c>
       <c r="D36">
-        <v>1066.9069999999999</v>
+        <v>746.02800000000002</v>
       </c>
       <c r="E36">
-        <v>852.33</v>
+        <v>589.15599999999995</v>
       </c>
       <c r="F36">
-        <v>603.09799999999996</v>
+        <v>433.33</v>
       </c>
       <c r="G36">
-        <v>1215.1030000000001</v>
+        <v>1112.6130000000001</v>
       </c>
       <c r="H36">
-        <v>13720.982</v>
+        <v>6472.4989999999998</v>
       </c>
       <c r="I36">
-        <v>303.988</v>
+        <v>123.61799999999999</v>
       </c>
       <c r="J36">
-        <v>8058.95</v>
+        <v>3208.384</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1616.787</v>
+        <v>676.77099999999996</v>
       </c>
       <c r="O36">
-        <v>11988.888000000001</v>
+        <v>4520.933</v>
       </c>
       <c r="P36">
-        <v>10382.155000000001</v>
+        <v>3238.9670000000001</v>
       </c>
       <c r="Q36">
-        <v>0.52100000000000002</v>
+        <v>44.225000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1732.0940000000001</v>
+        <v>1951.566</v>
       </c>
       <c r="U36">
-        <v>161.99600000000001</v>
+        <v>316.05599999999998</v>
       </c>
       <c r="V36">
-        <v>312.66399999999999</v>
+        <v>120.79900000000001</v>
       </c>
       <c r="W36">
-        <v>-175.334</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-148.63399999999999</v>
+        <v>-14.321</v>
       </c>
       <c r="Y36">
-        <v>1986.71</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>92.441000000000003</v>
+        <v>87.638000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>107.675</v>
+        <v>43.186</v>
       </c>
       <c r="D37">
-        <v>1062.2239999999999</v>
+        <v>764.88499999999999</v>
       </c>
       <c r="E37">
-        <v>821.92600000000004</v>
+        <v>596.42700000000002</v>
       </c>
       <c r="F37">
-        <v>612.85199999999998</v>
+        <v>443.41500000000002</v>
       </c>
       <c r="G37">
-        <v>1203.893</v>
+        <v>1197.6669999999999</v>
       </c>
       <c r="H37">
-        <v>13577.166999999999</v>
+        <v>6706.2250000000004</v>
       </c>
       <c r="I37">
-        <v>289.94</v>
+        <v>136.57300000000001</v>
       </c>
       <c r="J37">
-        <v>7901.3609999999999</v>
+        <v>3275.9349999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1830.1110000000001</v>
+        <v>721.49699999999996</v>
       </c>
       <c r="O37">
-        <v>11997.218999999999</v>
+        <v>4656.1509999999998</v>
       </c>
       <c r="P37">
-        <v>10458.252</v>
+        <v>3306.6410000000001</v>
       </c>
       <c r="Q37">
-        <v>24.782</v>
+        <v>133.20699999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1579.9480000000001</v>
+        <v>2050.0740000000001</v>
       </c>
       <c r="U37">
-        <v>186.77799999999999</v>
+        <v>449.26299999999998</v>
       </c>
       <c r="V37">
-        <v>218.41399999999999</v>
+        <v>185.59899999999999</v>
       </c>
       <c r="W37">
-        <v>-175.55099999999999</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-19.216999999999999</v>
+        <v>28.204000000000001</v>
       </c>
       <c r="Y37">
-        <v>1945.893</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>107.675</v>
+        <v>43.186</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>37.700000000000003</v>
+        <v>61.253999999999998</v>
       </c>
       <c r="D38">
-        <v>1079.5899999999999</v>
+        <v>779.33600000000001</v>
       </c>
       <c r="E38">
-        <v>850.70100000000002</v>
+        <v>585.37599999999998</v>
       </c>
       <c r="F38">
-        <v>620.10199999999998</v>
+        <v>459.27</v>
       </c>
       <c r="G38">
-        <v>1236.3389999999999</v>
+        <v>1211.425</v>
       </c>
       <c r="H38">
-        <v>13816.816000000001</v>
+        <v>6846.8339999999998</v>
       </c>
       <c r="I38">
-        <v>324.70800000000003</v>
+        <v>175.23099999999999</v>
       </c>
       <c r="J38">
-        <v>7963.74</v>
+        <v>3211.223</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1949.509</v>
+        <v>814.71400000000006</v>
       </c>
       <c r="O38">
-        <v>12284.906999999999</v>
+        <v>4689.3630000000003</v>
       </c>
       <c r="P38">
-        <v>10625.288</v>
+        <v>3251.7840000000001</v>
       </c>
       <c r="Q38">
-        <v>6.7770000000000001</v>
+        <v>-2.6070000000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>25000</v>
+        <v>20100</v>
       </c>
       <c r="T38">
-        <v>1531.9090000000001</v>
+        <v>2157.471</v>
       </c>
       <c r="U38">
-        <v>193.55500000000001</v>
+        <v>446.65600000000001</v>
       </c>
       <c r="V38">
-        <v>318.51</v>
+        <v>183.02099999999999</v>
       </c>
       <c r="W38">
-        <v>-175.61799999999999</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-218.858</v>
+        <v>-87.465000000000003</v>
       </c>
       <c r="Y38">
-        <v>2049.2860000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-3.1139999999999999</v>
       </c>
       <c r="AA38">
-        <v>37.700000000000003</v>
+        <v>61.253999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>63.975000000000001</v>
+        <v>25.565999999999999</v>
       </c>
       <c r="D39">
-        <v>1068.731</v>
+        <v>725.58</v>
       </c>
       <c r="E39">
-        <v>831.50699999999995</v>
+        <v>582.59900000000005</v>
       </c>
       <c r="F39">
-        <v>601.80999999999995</v>
+        <v>414.49099999999999</v>
       </c>
       <c r="G39">
-        <v>1199.056</v>
+        <v>1090.3230000000001</v>
       </c>
       <c r="H39">
-        <v>13566.335999999999</v>
+        <v>6738.6790000000001</v>
       </c>
       <c r="I39">
-        <v>321.16000000000003</v>
+        <v>132.39500000000001</v>
       </c>
       <c r="J39">
-        <v>8419.1080000000002</v>
+        <v>3183.3490000000002</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="M39">
-        <v>-2581.7710000000002</v>
+        <v>-19.001000000000001</v>
       </c>
       <c r="N39">
-        <v>1581.2629999999999</v>
+        <v>725.90899999999999</v>
       </c>
       <c r="O39">
-        <v>12380.338</v>
+        <v>4586.7389999999996</v>
       </c>
       <c r="P39">
-        <v>10848.888999999999</v>
+        <v>3221.152</v>
       </c>
       <c r="Q39">
-        <v>-40.871000000000002</v>
+        <v>-121.23399999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1185.998</v>
+        <v>2151.94</v>
       </c>
       <c r="U39">
-        <v>152.684</v>
+        <v>325.42200000000003</v>
       </c>
       <c r="V39">
-        <v>125.41500000000001</v>
+        <v>131.167</v>
       </c>
       <c r="W39">
-        <v>-181.30199999999999</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>73.757999999999996</v>
+        <v>-17.155000000000001</v>
       </c>
       <c r="Y39">
-        <v>2072.893</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>63.975000000000001</v>
+        <v>25.565999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-7.0860000000000003</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>982.23900000000003</v>
+        <v>724.78300000000002</v>
       </c>
       <c r="E40">
-        <v>805.90099999999995</v>
+        <v>581.17600000000004</v>
       </c>
       <c r="F40">
-        <v>583.19399999999996</v>
+        <v>430.10199999999998</v>
       </c>
       <c r="G40">
-        <v>1897.373</v>
+        <v>1125.2339999999999</v>
       </c>
       <c r="H40">
-        <v>14367.553</v>
+        <v>6647.0959999999995</v>
       </c>
       <c r="I40">
-        <v>296.62900000000002</v>
+        <v>124.31</v>
       </c>
       <c r="J40">
-        <v>8461.1020000000008</v>
+        <v>3129.1529999999998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2383.2710000000002</v>
+        <v>731.65</v>
       </c>
       <c r="O40">
-        <v>13279.71</v>
+        <v>4531.0410000000002</v>
       </c>
       <c r="P40">
-        <v>11690.152</v>
+        <v>3166.8150000000001</v>
       </c>
       <c r="Q40">
-        <v>754.49599999999998</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1087.8430000000001</v>
+        <v>2116.0549999999998</v>
       </c>
       <c r="U40">
-        <v>907.18</v>
+        <v>340.47899999999998</v>
       </c>
       <c r="V40">
-        <v>313.65899999999999</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-178.15899999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>543.154</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>2115.9119999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-6.85</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-7.0860000000000003</v>
+        <v>41.292000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>38.393999999999998</v>
+        <v>-153.77600000000001</v>
       </c>
       <c r="D41">
-        <v>1036.6469999999999</v>
+        <v>731.13199999999995</v>
       </c>
       <c r="E41">
-        <v>791.85900000000004</v>
+        <v>590.23</v>
       </c>
       <c r="F41">
-        <v>602.14200000000005</v>
+        <v>438.91</v>
       </c>
       <c r="G41">
-        <v>1134.0250000000001</v>
+        <v>994.61</v>
       </c>
       <c r="H41">
-        <v>13682.66</v>
+        <v>6350.9179999999997</v>
       </c>
       <c r="I41">
-        <v>302.61799999999999</v>
+        <v>138.364</v>
       </c>
       <c r="J41">
-        <v>8330.6880000000001</v>
+        <v>2972.973</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1890.903</v>
+        <v>747.16600000000005</v>
       </c>
       <c r="O41">
-        <v>12681.748</v>
+        <v>4383.7060000000001</v>
       </c>
       <c r="P41">
-        <v>11089.523999999999</v>
+        <v>3009.7289999999998</v>
       </c>
       <c r="Q41">
-        <v>-755.20799999999997</v>
+        <v>-156.30600000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1000.912</v>
+        <v>1967.212</v>
       </c>
       <c r="U41">
-        <v>151.97200000000001</v>
+        <v>184.173</v>
       </c>
       <c r="V41">
-        <v>188.14400000000001</v>
+        <v>176.93799999999999</v>
       </c>
       <c r="W41">
-        <v>-178.392</v>
+        <v>-12.641</v>
       </c>
       <c r="X41">
-        <v>-924.08600000000001</v>
+        <v>-275.85700000000003</v>
       </c>
       <c r="Y41">
-        <v>2130.2310000000002</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>38.393999999999998</v>
+        <v>-153.77600000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>29.332000000000001</v>
+      </c>
+      <c r="D42">
+        <v>710.85400000000004</v>
+      </c>
+      <c r="E42">
+        <v>524.32600000000002</v>
+      </c>
+      <c r="F42">
+        <v>423.38400000000001</v>
+      </c>
+      <c r="G42">
+        <v>1212.462</v>
+      </c>
+      <c r="H42">
+        <v>6416.393</v>
+      </c>
+      <c r="I42">
+        <v>143.76499999999999</v>
+      </c>
+      <c r="J42">
+        <v>2912.1260000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>874.70299999999997</v>
+      </c>
+      <c r="O42">
+        <v>4463.5280000000002</v>
+      </c>
+      <c r="P42">
+        <v>3008.2069999999999</v>
+      </c>
+      <c r="Q42">
+        <v>74.52</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>19400</v>
+      </c>
+      <c r="T42">
+        <v>1952.865</v>
+      </c>
+      <c r="U42">
+        <v>258.69299999999998</v>
+      </c>
+      <c r="V42">
+        <v>180.10400000000001</v>
+      </c>
+      <c r="W42">
+        <v>-12.532</v>
+      </c>
+      <c r="X42">
+        <v>-26.19</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>29.332000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="D43">
+        <v>746.00900000000001</v>
+      </c>
+      <c r="E43">
+        <v>610.149</v>
+      </c>
+      <c r="F43">
+        <v>430.05399999999997</v>
+      </c>
+      <c r="G43">
+        <v>1018.602</v>
+      </c>
+      <c r="H43">
+        <v>6470.1019999999999</v>
+      </c>
+      <c r="I43">
+        <v>132.13900000000001</v>
+      </c>
+      <c r="J43">
+        <v>2960.88</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-659.803</v>
+      </c>
+      <c r="N43">
+        <v>807.947</v>
+      </c>
+      <c r="O43">
+        <v>4442.116</v>
+      </c>
+      <c r="P43">
+        <v>3005.6790000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-68.876000000000005</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2027.9860000000001</v>
+      </c>
+      <c r="U43">
+        <v>189.81700000000001</v>
+      </c>
+      <c r="V43">
+        <v>119.337</v>
+      </c>
+      <c r="W43">
+        <v>-37.514000000000003</v>
+      </c>
+      <c r="X43">
+        <v>-90.510999999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.05</v>
+      </c>
+      <c r="AA43">
+        <v>73.459999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>252.684</v>
+      </c>
+      <c r="D44">
+        <v>758.55100000000004</v>
+      </c>
+      <c r="E44">
+        <v>577.61599999999999</v>
+      </c>
+      <c r="F44">
+        <v>450.97399999999999</v>
+      </c>
+      <c r="G44">
+        <v>1069.646</v>
+      </c>
+      <c r="H44">
+        <v>6410.6989999999996</v>
+      </c>
+      <c r="I44">
+        <v>133.63300000000001</v>
+      </c>
+      <c r="J44">
+        <v>2866.92</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>798.39200000000005</v>
+      </c>
+      <c r="O44">
+        <v>4348.59</v>
+      </c>
+      <c r="P44">
+        <v>2933.1190000000001</v>
+      </c>
+      <c r="Q44">
+        <v>81.606999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2062.1089999999999</v>
+      </c>
+      <c r="U44">
+        <v>271.42399999999998</v>
+      </c>
+      <c r="V44">
+        <v>123.72</v>
+      </c>
+      <c r="W44">
+        <v>-37.53</v>
+      </c>
+      <c r="X44">
+        <v>-332.98399999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="AA44">
+        <v>252.684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>37.338000000000001</v>
+      </c>
+      <c r="D45">
+        <v>768.30600000000004</v>
+      </c>
+      <c r="E45">
+        <v>548.42200000000003</v>
+      </c>
+      <c r="F45">
+        <v>461.94499999999999</v>
+      </c>
+      <c r="G45">
+        <v>1259.943</v>
+      </c>
+      <c r="H45">
+        <v>6391.4430000000002</v>
+      </c>
+      <c r="I45">
+        <v>130.47</v>
+      </c>
+      <c r="J45">
+        <v>3257.2130000000002</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>754.68899999999996</v>
+      </c>
+      <c r="O45">
+        <v>4677.7420000000002</v>
+      </c>
+      <c r="P45">
+        <v>3320.4059999999999</v>
+      </c>
+      <c r="Q45">
+        <v>209.45500000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1713.701</v>
+      </c>
+      <c r="U45">
+        <v>480.87900000000002</v>
+      </c>
+      <c r="V45">
+        <v>167.90100000000001</v>
+      </c>
+      <c r="W45">
+        <v>-50.695</v>
+      </c>
+      <c r="X45">
+        <v>102.861</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.123</v>
+      </c>
+      <c r="AA45">
+        <v>37.338000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>32.055999999999997</v>
+      </c>
+      <c r="D46">
+        <v>741.83699999999999</v>
+      </c>
+      <c r="E46">
+        <v>543.46699999999998</v>
+      </c>
+      <c r="F46">
+        <v>423.03</v>
+      </c>
+      <c r="G46">
+        <v>914.45</v>
+      </c>
+      <c r="H46">
+        <v>6041.2579999999998</v>
+      </c>
+      <c r="I46">
+        <v>156.381</v>
+      </c>
+      <c r="J46">
+        <v>3280.268</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>849.03</v>
+      </c>
+      <c r="O46">
+        <v>4787.0020000000004</v>
+      </c>
+      <c r="P46">
+        <v>3353.5880000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-301.03399999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>17000</v>
+      </c>
+      <c r="T46">
+        <v>1254.2560000000001</v>
+      </c>
+      <c r="U46">
+        <v>179.845</v>
+      </c>
+      <c r="V46">
+        <v>204.48</v>
+      </c>
+      <c r="W46">
+        <v>-46.877000000000002</v>
+      </c>
+      <c r="X46">
+        <v>-443.17399999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>32.055999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>55.35</v>
+      </c>
+      <c r="D47">
+        <v>746.49800000000005</v>
+      </c>
+      <c r="E47">
+        <v>558.35699999999997</v>
+      </c>
+      <c r="F47">
+        <v>431.2</v>
+      </c>
+      <c r="G47">
+        <v>931.99900000000002</v>
+      </c>
+      <c r="H47">
+        <v>6086.6220000000003</v>
+      </c>
+      <c r="I47">
+        <v>139.23599999999999</v>
+      </c>
+      <c r="J47">
+        <v>3390.4470000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-635.53899999999999</v>
+      </c>
+      <c r="N47">
+        <v>778.14</v>
+      </c>
+      <c r="O47">
+        <v>4817.8190000000004</v>
+      </c>
+      <c r="P47">
+        <v>3453.6759999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-1.552</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1268.8030000000001</v>
+      </c>
+      <c r="U47">
+        <v>178.29300000000001</v>
+      </c>
+      <c r="V47">
+        <v>74.884</v>
+      </c>
+      <c r="W47">
+        <v>-43.18</v>
+      </c>
+      <c r="X47">
+        <v>-14.096</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>55.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>38.055</v>
+      </c>
+      <c r="D48">
+        <v>752.16499999999996</v>
+      </c>
+      <c r="E48">
+        <v>572.37699999999995</v>
+      </c>
+      <c r="F48">
+        <v>439.10500000000002</v>
+      </c>
+      <c r="G48">
+        <v>891.154</v>
+      </c>
+      <c r="H48">
+        <v>6087.2120000000004</v>
+      </c>
+      <c r="I48">
+        <v>136.666</v>
+      </c>
+      <c r="J48">
+        <v>3430.1570000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>780.726</v>
+      </c>
+      <c r="O48">
+        <v>4836.8879999999999</v>
+      </c>
+      <c r="P48">
+        <v>3492.9940000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-8.0630000000000006</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1250.3240000000001</v>
+      </c>
+      <c r="U48">
+        <v>170.23</v>
+      </c>
+      <c r="V48">
+        <v>137.30600000000001</v>
+      </c>
+      <c r="W48">
+        <v>-42.790999999999997</v>
+      </c>
+      <c r="X48">
+        <v>21.178999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>38.055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>52.808999999999997</v>
+      </c>
+      <c r="D49">
+        <v>748.125</v>
+      </c>
+      <c r="E49">
+        <v>576.5</v>
+      </c>
+      <c r="F49">
+        <v>437.78100000000001</v>
+      </c>
+      <c r="G49">
+        <v>1065.9839999999999</v>
+      </c>
+      <c r="H49">
+        <v>6327.5749999999998</v>
+      </c>
+      <c r="I49">
+        <v>124.762</v>
+      </c>
+      <c r="J49">
+        <v>3668.047</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>772.61500000000001</v>
+      </c>
+      <c r="O49">
+        <v>5028.45</v>
+      </c>
+      <c r="P49">
+        <v>3739.4270000000001</v>
+      </c>
+      <c r="Q49">
+        <v>164.35300000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1299.125</v>
+      </c>
+      <c r="U49">
+        <v>334.58300000000003</v>
+      </c>
+      <c r="V49">
+        <v>88.546999999999997</v>
+      </c>
+      <c r="W49">
+        <v>-46.335999999999999</v>
+      </c>
+      <c r="X49">
+        <v>136.61699999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-2.33</v>
+      </c>
+      <c r="AA49">
+        <v>52.808999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>25.494</v>
+      </c>
+      <c r="D50">
+        <v>758.46699999999998</v>
+      </c>
+      <c r="E50">
+        <v>572.20000000000005</v>
+      </c>
+      <c r="F50">
+        <v>420.05599999999998</v>
+      </c>
+      <c r="G50">
+        <v>1024.0920000000001</v>
+      </c>
+      <c r="H50">
+        <v>6358.3389999999999</v>
+      </c>
+      <c r="I50">
+        <v>168.12</v>
+      </c>
+      <c r="J50">
+        <v>3732.116</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>904.95299999999997</v>
+      </c>
+      <c r="O50">
+        <v>5195.8909999999996</v>
+      </c>
+      <c r="P50">
+        <v>3825.0030000000002</v>
+      </c>
+      <c r="Q50">
+        <v>-91.168000000000006</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>17500</v>
+      </c>
+      <c r="T50">
+        <v>1162.4480000000001</v>
+      </c>
+      <c r="U50">
+        <v>243.41499999999999</v>
+      </c>
+      <c r="V50">
+        <v>131.999</v>
+      </c>
+      <c r="W50">
+        <v>-46.537999999999997</v>
+      </c>
+      <c r="X50">
+        <v>-115.47</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>25.494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>19.385999999999999</v>
+      </c>
+      <c r="D51">
+        <v>747.03099999999995</v>
+      </c>
+      <c r="E51">
+        <v>571.40200000000004</v>
+      </c>
+      <c r="F51">
+        <v>425.95499999999998</v>
+      </c>
+      <c r="G51">
+        <v>1001.136</v>
+      </c>
+      <c r="H51">
+        <v>6298.18</v>
+      </c>
+      <c r="I51">
+        <v>168.59</v>
+      </c>
+      <c r="J51">
+        <v>3757.8530000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-355.36700000000002</v>
+      </c>
+      <c r="N51">
+        <v>844.57799999999997</v>
+      </c>
+      <c r="O51">
+        <v>5170.1030000000001</v>
+      </c>
+      <c r="P51">
+        <v>3849.7060000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-13.416</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1128.077</v>
+      </c>
+      <c r="U51">
+        <v>229.999</v>
+      </c>
+      <c r="V51">
+        <v>106.605</v>
+      </c>
+      <c r="W51">
+        <v>-51.661999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-14.087999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>19.385999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>26.167999999999999</v>
+      </c>
+      <c r="D52">
+        <v>754.39599999999996</v>
+      </c>
+      <c r="E52">
+        <v>581.48099999999999</v>
+      </c>
+      <c r="F52">
+        <v>433.34</v>
+      </c>
+      <c r="G52">
+        <v>1045.982</v>
+      </c>
+      <c r="H52">
+        <v>6334.8190000000004</v>
+      </c>
+      <c r="I52">
+        <v>141.68600000000001</v>
+      </c>
+      <c r="J52">
+        <v>3614.018</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1072.925</v>
+      </c>
+      <c r="O52">
+        <v>5241.28</v>
+      </c>
+      <c r="P52">
+        <v>3938.7</v>
+      </c>
+      <c r="Q52">
+        <v>28.867000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1093.539</v>
+      </c>
+      <c r="U52">
+        <v>258.86599999999999</v>
+      </c>
+      <c r="V52">
+        <v>107.29600000000001</v>
+      </c>
+      <c r="W52">
+        <v>-51.646999999999998</v>
+      </c>
+      <c r="X52">
+        <v>41.006</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>26.366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="D53">
+        <v>755.31399999999996</v>
+      </c>
+      <c r="E53">
+        <v>614.649</v>
+      </c>
+      <c r="F53">
+        <v>444.649</v>
+      </c>
+      <c r="G53">
+        <v>942.47799999999995</v>
+      </c>
+      <c r="H53">
+        <v>6380.7790000000005</v>
+      </c>
+      <c r="I53">
+        <v>164.96899999999999</v>
+      </c>
+      <c r="J53">
+        <v>3973.799</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>828.5</v>
+      </c>
+      <c r="O53">
+        <v>5308.6130000000003</v>
+      </c>
+      <c r="P53">
+        <v>4025.3319999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-86.834999999999994</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1072.1659999999999</v>
+      </c>
+      <c r="U53">
+        <v>172.03100000000001</v>
+      </c>
+      <c r="V53">
+        <v>120.681</v>
+      </c>
+      <c r="W53">
+        <v>-51.718000000000004</v>
+      </c>
+      <c r="X53">
+        <v>-76.722999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>47.058999999999997</v>
+      </c>
+      <c r="D54">
+        <v>768.20699999999999</v>
+      </c>
+      <c r="E54">
+        <v>616.79700000000003</v>
+      </c>
+      <c r="F54">
+        <v>435.52600000000001</v>
+      </c>
+      <c r="G54">
+        <v>933.60699999999997</v>
+      </c>
+      <c r="H54">
+        <v>6653.0050000000001</v>
+      </c>
+      <c r="I54">
+        <v>216.45599999999999</v>
+      </c>
+      <c r="J54">
+        <v>4119.1390000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>969.101</v>
+      </c>
+      <c r="O54">
+        <v>5601.2709999999997</v>
+      </c>
+      <c r="P54">
+        <v>4171.7219999999998</v>
+      </c>
+      <c r="Q54">
+        <v>-51.505000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>19500</v>
+      </c>
+      <c r="T54">
+        <v>1051.7339999999999</v>
+      </c>
+      <c r="U54">
+        <v>120.526</v>
+      </c>
+      <c r="V54">
+        <v>172.964</v>
+      </c>
+      <c r="W54">
+        <v>-51.771000000000001</v>
+      </c>
+      <c r="X54">
+        <v>68.369</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>47.058999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="D55">
+        <v>770.12599999999998</v>
+      </c>
+      <c r="E55">
+        <v>626.11599999999999</v>
+      </c>
+      <c r="F55">
+        <v>434.98099999999999</v>
+      </c>
+      <c r="G55">
+        <v>987.62900000000002</v>
+      </c>
+      <c r="H55">
+        <v>6706.6170000000002</v>
+      </c>
+      <c r="I55">
+        <v>167.637</v>
+      </c>
+      <c r="J55">
+        <v>4288.6049999999996</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-2.3170000000000002</v>
+      </c>
+      <c r="M55">
+        <v>-2701.9659999999999</v>
+      </c>
+      <c r="N55">
+        <v>867.85</v>
+      </c>
+      <c r="O55">
+        <v>5655.4459999999999</v>
+      </c>
+      <c r="P55">
+        <v>4343.6890000000003</v>
+      </c>
+      <c r="Q55">
+        <v>49.38</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1051.171</v>
+      </c>
+      <c r="U55">
+        <v>169.90600000000001</v>
+      </c>
+      <c r="V55">
+        <v>55.640999999999998</v>
+      </c>
+      <c r="W55">
+        <v>-52.734999999999999</v>
+      </c>
+      <c r="X55">
+        <v>120.839</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>41.667000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>271.637</v>
+      </c>
+      <c r="D56">
+        <v>786.89200000000005</v>
+      </c>
+      <c r="E56">
+        <v>636.97799999999995</v>
+      </c>
+      <c r="F56">
+        <v>449.93099999999998</v>
+      </c>
+      <c r="G56">
+        <v>962.86800000000005</v>
+      </c>
+      <c r="H56">
+        <v>6735.1239999999998</v>
+      </c>
+      <c r="I56">
+        <v>162.036</v>
+      </c>
+      <c r="J56">
+        <v>4297.942</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>901.70799999999997</v>
+      </c>
+      <c r="O56">
+        <v>5437.9740000000002</v>
+      </c>
+      <c r="P56">
+        <v>4354.5460000000003</v>
+      </c>
+      <c r="Q56">
+        <v>-24.562999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1297.1500000000001</v>
+      </c>
+      <c r="U56">
+        <v>145.34299999999999</v>
+      </c>
+      <c r="V56">
+        <v>139.96</v>
+      </c>
+      <c r="W56">
+        <v>-52.125999999999998</v>
+      </c>
+      <c r="X56">
+        <v>-61.012</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>271.637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D57">
+        <v>782.697</v>
+      </c>
+      <c r="E57">
+        <v>618.99599999999998</v>
+      </c>
+      <c r="F57">
+        <v>447.19099999999997</v>
+      </c>
+      <c r="G57">
+        <v>976.38599999999997</v>
+      </c>
+      <c r="H57">
+        <v>6636.3389999999999</v>
+      </c>
+      <c r="I57">
+        <v>141.64500000000001</v>
+      </c>
+      <c r="J57">
+        <v>4331.6859999999997</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1598.308</v>
+      </c>
+      <c r="O57">
+        <v>6168.6769999999997</v>
+      </c>
+      <c r="P57">
+        <v>4392.4849999999997</v>
+      </c>
+      <c r="Q57">
+        <v>38.645000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>467.66199999999998</v>
+      </c>
+      <c r="U57">
+        <v>183.988</v>
+      </c>
+      <c r="V57">
+        <v>106.251</v>
+      </c>
+      <c r="W57">
+        <v>-52.156999999999996</v>
+      </c>
+      <c r="X57">
+        <v>35.006</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>12.749000000000001</v>
+      </c>
+      <c r="D58">
+        <v>777.97799999999995</v>
+      </c>
+      <c r="E58">
+        <v>604.26499999999999</v>
+      </c>
+      <c r="F58">
+        <v>442.18200000000002</v>
+      </c>
+      <c r="G58">
+        <v>917.71900000000005</v>
+      </c>
+      <c r="H58">
+        <v>6523.2650000000003</v>
+      </c>
+      <c r="I58">
+        <v>203.01400000000001</v>
+      </c>
+      <c r="J58">
+        <v>4564.3590000000004</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>856.73599999999999</v>
+      </c>
+      <c r="O58">
+        <v>5653.31</v>
+      </c>
+      <c r="P58">
+        <v>4616.4539999999997</v>
+      </c>
+      <c r="Q58">
+        <v>-58.055</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>20000</v>
+      </c>
+      <c r="T58">
+        <v>869.95500000000004</v>
+      </c>
+      <c r="U58">
+        <v>125.93300000000001</v>
+      </c>
+      <c r="V58">
+        <v>171.096</v>
+      </c>
+      <c r="W58">
+        <v>-245.28</v>
+      </c>
+      <c r="X58">
+        <v>-74.975999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>12.749000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>41.095999999999997</v>
+      </c>
+      <c r="D59">
+        <v>749.28599999999994</v>
+      </c>
+      <c r="E59">
+        <v>590.02599999999995</v>
+      </c>
+      <c r="F59">
+        <v>427.63200000000001</v>
+      </c>
+      <c r="G59">
+        <v>887.47299999999996</v>
+      </c>
+      <c r="H59">
+        <v>6371.4539999999997</v>
+      </c>
+      <c r="I59">
+        <v>184.40600000000001</v>
+      </c>
+      <c r="J59">
+        <v>4667.3590000000004</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-0.38800000000000001</v>
+      </c>
+      <c r="M59">
+        <v>-2282.261</v>
+      </c>
+      <c r="N59">
+        <v>720.33100000000002</v>
+      </c>
+      <c r="O59">
+        <v>5614.9520000000002</v>
+      </c>
+      <c r="P59">
+        <v>4721.8419999999996</v>
+      </c>
+      <c r="Q59">
+        <v>-6.3280000000000003</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>756.50199999999995</v>
+      </c>
+      <c r="U59">
+        <v>119.605</v>
+      </c>
+      <c r="V59">
+        <v>5.5119999999999996</v>
+      </c>
+      <c r="W59">
+        <v>-102.539</v>
+      </c>
+      <c r="X59">
+        <v>68.863</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>41.095999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>53.33</v>
+      </c>
+      <c r="D60">
+        <v>759.73400000000004</v>
+      </c>
+      <c r="E60">
+        <v>596.25199999999995</v>
+      </c>
+      <c r="F60">
+        <v>433.45100000000002</v>
+      </c>
+      <c r="G60">
+        <v>874.72699999999998</v>
+      </c>
+      <c r="H60">
+        <v>6422.5770000000002</v>
+      </c>
+      <c r="I60">
+        <v>162.238</v>
+      </c>
+      <c r="J60">
+        <v>4718.915</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>752.13499999999999</v>
+      </c>
+      <c r="O60">
+        <v>5700.3519999999999</v>
+      </c>
+      <c r="P60">
+        <v>4789.1499999999996</v>
+      </c>
+      <c r="Q60">
+        <v>-2.5070000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>722.22500000000002</v>
+      </c>
+      <c r="U60">
+        <v>117.098</v>
+      </c>
+      <c r="V60">
+        <v>174.226</v>
+      </c>
+      <c r="W60">
+        <v>-100.69</v>
+      </c>
+      <c r="X60">
+        <v>-104.33199999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>23.11</v>
+      </c>
+      <c r="D61">
+        <v>746.529</v>
+      </c>
+      <c r="E61">
+        <v>573.88900000000001</v>
+      </c>
+      <c r="F61">
+        <v>428.86599999999999</v>
+      </c>
+      <c r="G61">
+        <v>1228.298</v>
+      </c>
+      <c r="H61">
+        <v>6669.8220000000001</v>
+      </c>
+      <c r="I61">
+        <v>156.845</v>
+      </c>
+      <c r="J61">
+        <v>4920.5680000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>910.77700000000004</v>
+      </c>
+      <c r="O61">
+        <v>6050.0450000000001</v>
+      </c>
+      <c r="P61">
+        <v>5174.2939999999999</v>
+      </c>
+      <c r="Q61">
+        <v>375.80099999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>619.77700000000004</v>
+      </c>
+      <c r="U61">
+        <v>492.899</v>
+      </c>
+      <c r="V61">
+        <v>140.357</v>
+      </c>
+      <c r="W61">
+        <v>-100.483</v>
+      </c>
+      <c r="X61">
+        <v>321.00900000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="D62">
+        <v>752.42700000000002</v>
+      </c>
+      <c r="E62">
+        <v>564.40099999999995</v>
+      </c>
+      <c r="F62">
+        <v>428.00200000000001</v>
+      </c>
+      <c r="G62">
+        <v>857.91200000000003</v>
+      </c>
+      <c r="H62">
+        <v>6350.5870000000004</v>
+      </c>
+      <c r="I62">
+        <v>219.59</v>
+      </c>
+      <c r="J62">
+        <v>4757.6099999999997</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>841.83100000000002</v>
+      </c>
+      <c r="O62">
+        <v>5821.98</v>
+      </c>
+      <c r="P62">
+        <v>4845.6779999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-364.51799999999997</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>20000</v>
+      </c>
+      <c r="T62">
+        <v>528.60699999999997</v>
+      </c>
+      <c r="U62">
+        <v>128.381</v>
+      </c>
+      <c r="V62">
+        <v>221.66499999999999</v>
+      </c>
+      <c r="W62">
+        <v>-102.79600000000001</v>
+      </c>
+      <c r="X62">
+        <v>-394.05099999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>5.7050000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>62.774000000000001</v>
+      </c>
+      <c r="D63">
+        <v>750.69</v>
+      </c>
+      <c r="E63">
+        <v>574.71699999999998</v>
+      </c>
+      <c r="F63">
+        <v>424.58499999999998</v>
+      </c>
+      <c r="G63">
+        <v>831.89599999999996</v>
+      </c>
+      <c r="H63">
+        <v>6422.3090000000002</v>
+      </c>
+      <c r="I63">
+        <v>180.25899999999999</v>
+      </c>
+      <c r="J63">
+        <v>4931.2960000000003</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="M63">
+        <v>-2384.2150000000001</v>
+      </c>
+      <c r="N63">
+        <v>748.49300000000005</v>
+      </c>
+      <c r="O63">
+        <v>5901.165</v>
+      </c>
+      <c r="P63">
+        <v>5021.2700000000004</v>
+      </c>
+      <c r="Q63">
+        <v>-10.436</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>521.14400000000001</v>
+      </c>
+      <c r="U63">
+        <v>117.94499999999999</v>
+      </c>
+      <c r="V63">
+        <v>81.117999999999995</v>
+      </c>
+      <c r="W63">
+        <v>-104.931</v>
+      </c>
+      <c r="X63">
+        <v>19.260999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>62.774000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>883.74800000000005</v>
+      </c>
+      <c r="E64">
+        <v>710.52599999999995</v>
+      </c>
+      <c r="F64">
+        <v>488.43</v>
+      </c>
+      <c r="G64">
+        <v>1289.3699999999999</v>
+      </c>
+      <c r="H64">
+        <v>9741.0540000000001</v>
+      </c>
+      <c r="I64">
+        <v>220.119</v>
+      </c>
+      <c r="J64">
+        <v>6103.058</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>982.029</v>
+      </c>
+      <c r="O64">
+        <v>7495.0240000000003</v>
+      </c>
+      <c r="P64">
+        <v>6215.567</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2246.0300000000002</v>
+      </c>
+      <c r="U64">
+        <v>236.989</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>-13.968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>7.08</v>
+      </c>
+      <c r="D65">
+        <v>942.822</v>
+      </c>
+      <c r="E65">
+        <v>700.23800000000006</v>
+      </c>
+      <c r="F65">
+        <v>517.471</v>
+      </c>
+      <c r="G65">
+        <v>1467.3409999999999</v>
+      </c>
+      <c r="H65">
+        <v>9904.9159999999993</v>
+      </c>
+      <c r="I65">
+        <v>233.971</v>
+      </c>
+      <c r="J65">
+        <v>6338.0240000000003</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1024.027</v>
+      </c>
+      <c r="O65">
+        <v>7754.6620000000003</v>
+      </c>
+      <c r="P65">
+        <v>6459.2269999999999</v>
+      </c>
+      <c r="Q65">
+        <v>221.13900000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2150.2539999999999</v>
+      </c>
+      <c r="U65">
+        <v>458.12799999999999</v>
+      </c>
+      <c r="V65">
+        <v>215.84200000000001</v>
+      </c>
+      <c r="W65">
+        <v>-127.866</v>
+      </c>
+      <c r="X65">
+        <v>128.398</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>48.938000000000002</v>
+      </c>
+      <c r="D66">
+        <v>934.19299999999998</v>
+      </c>
+      <c r="E66">
+        <v>691.24900000000002</v>
+      </c>
+      <c r="F66">
+        <v>525.15300000000002</v>
+      </c>
+      <c r="G66">
+        <v>1112.107</v>
+      </c>
+      <c r="H66">
+        <v>9486.7999999999993</v>
+      </c>
+      <c r="I66">
+        <v>222.197</v>
+      </c>
+      <c r="J66">
+        <v>6078.2060000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1046.557</v>
+      </c>
+      <c r="O66">
+        <v>7495.4319999999998</v>
+      </c>
+      <c r="P66">
+        <v>6251.1809999999996</v>
+      </c>
+      <c r="Q66">
+        <v>-221.64400000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>24000</v>
+      </c>
+      <c r="T66">
+        <v>1991.3679999999999</v>
+      </c>
+      <c r="U66">
+        <v>236.48400000000001</v>
+      </c>
+      <c r="V66">
+        <v>121.303</v>
+      </c>
+      <c r="W66">
+        <v>-145.40899999999999</v>
+      </c>
+      <c r="X66">
+        <v>-315.964</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>48.938000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>58.125</v>
+      </c>
+      <c r="D67">
+        <v>938.87599999999998</v>
+      </c>
+      <c r="E67">
+        <v>721.03</v>
+      </c>
+      <c r="F67">
+        <v>520.05600000000004</v>
+      </c>
+      <c r="G67">
+        <v>1198.6369999999999</v>
+      </c>
+      <c r="H67">
+        <v>9672.134</v>
+      </c>
+      <c r="I67">
+        <v>239.89400000000001</v>
+      </c>
+      <c r="J67">
+        <v>5922.7479999999996</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-2.5619999999999998</v>
+      </c>
+      <c r="M67">
+        <v>-2682.348</v>
+      </c>
+      <c r="N67">
+        <v>1418.4690000000001</v>
+      </c>
+      <c r="O67">
+        <v>7701.0519999999997</v>
+      </c>
+      <c r="P67">
+        <v>6343.9750000000004</v>
+      </c>
+      <c r="Q67">
+        <v>59.143999999999998</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1971.0820000000001</v>
+      </c>
+      <c r="U67">
+        <v>295.62799999999999</v>
+      </c>
+      <c r="V67">
+        <v>121.837</v>
+      </c>
+      <c r="W67">
+        <v>-2.06</v>
+      </c>
+      <c r="X67">
+        <v>36.661999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>58.125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>78.63</v>
+      </c>
+      <c r="D68">
+        <v>949.80600000000004</v>
+      </c>
+      <c r="E68">
+        <v>730.36599999999999</v>
+      </c>
+      <c r="F68">
+        <v>540.59500000000003</v>
+      </c>
+      <c r="G68">
+        <v>1205.876</v>
+      </c>
+      <c r="H68">
+        <v>9814.6929999999993</v>
+      </c>
+      <c r="I68">
+        <v>247.13399999999999</v>
+      </c>
+      <c r="J68">
+        <v>6028.9849999999997</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1474.606</v>
+      </c>
+      <c r="O68">
+        <v>7889.3119999999999</v>
+      </c>
+      <c r="P68">
+        <v>6452.2539999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-4.609</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1925.3810000000001</v>
+      </c>
+      <c r="U68">
+        <v>291.01900000000001</v>
+      </c>
+      <c r="V68">
+        <v>197.84</v>
+      </c>
+      <c r="W68">
+        <v>-145.333</v>
+      </c>
+      <c r="X68">
+        <v>-98.245999999999995</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>24.344999999999999</v>
+      </c>
+      <c r="D69">
+        <v>965.66099999999994</v>
+      </c>
+      <c r="E69">
+        <v>784.88400000000001</v>
+      </c>
+      <c r="F69">
+        <v>550.39300000000003</v>
+      </c>
+      <c r="G69">
+        <v>1328.2239999999999</v>
+      </c>
+      <c r="H69">
+        <v>10260.005999999999</v>
+      </c>
+      <c r="I69">
+        <v>252.95500000000001</v>
+      </c>
+      <c r="J69">
+        <v>6700.0940000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1232.3689999999999</v>
+      </c>
+      <c r="O69">
+        <v>8323.9359999999997</v>
+      </c>
+      <c r="P69">
+        <v>6880.4840000000004</v>
+      </c>
+      <c r="Q69">
+        <v>46.866999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1936.07</v>
+      </c>
+      <c r="U69">
+        <v>337.88600000000002</v>
+      </c>
+      <c r="V69">
+        <v>199.19200000000001</v>
+      </c>
+      <c r="W69">
+        <v>-145.58699999999999</v>
+      </c>
+      <c r="X69">
+        <v>103.06399999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>24.344999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>22.721</v>
+      </c>
+      <c r="D70">
+        <v>991.23500000000001</v>
+      </c>
+      <c r="E70">
+        <v>835.74199999999996</v>
+      </c>
+      <c r="F70">
+        <v>569.70899999999995</v>
+      </c>
+      <c r="G70">
+        <v>1950.3150000000001</v>
+      </c>
+      <c r="H70">
+        <v>10972.402</v>
+      </c>
+      <c r="I70">
+        <v>289.137</v>
+      </c>
+      <c r="J70">
+        <v>6896.9709999999995</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1330.173</v>
+      </c>
+      <c r="O70">
+        <v>8582.1419999999998</v>
+      </c>
+      <c r="P70">
+        <v>7043.2709999999997</v>
+      </c>
+      <c r="Q70">
+        <v>587.81299999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>24000</v>
+      </c>
+      <c r="T70">
+        <v>2390.2600000000002</v>
+      </c>
+      <c r="U70">
+        <v>925.69899999999996</v>
+      </c>
+      <c r="V70">
+        <v>202.09899999999999</v>
+      </c>
+      <c r="W70">
+        <v>-147.01900000000001</v>
+      </c>
+      <c r="X70">
+        <v>498.94499999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>22.721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>44.683999999999997</v>
+      </c>
+      <c r="D71">
+        <v>1042.4580000000001</v>
+      </c>
+      <c r="E71">
+        <v>859.10599999999999</v>
+      </c>
+      <c r="F71">
+        <v>594.03300000000002</v>
+      </c>
+      <c r="G71">
+        <v>1524.873</v>
+      </c>
+      <c r="H71">
+        <v>11998.148999999999</v>
+      </c>
+      <c r="I71">
+        <v>251.214</v>
+      </c>
+      <c r="J71">
+        <v>8021.058</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-4410.6559999999999</v>
+      </c>
+      <c r="N71">
+        <v>1231.0619999999999</v>
+      </c>
+      <c r="O71">
+        <v>9643.9969999999994</v>
+      </c>
+      <c r="P71">
+        <v>8158.2560000000003</v>
+      </c>
+      <c r="Q71">
+        <v>-483.20800000000003</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2354.152</v>
+      </c>
+      <c r="U71">
+        <v>442.49099999999999</v>
+      </c>
+      <c r="V71">
+        <v>91.567999999999998</v>
+      </c>
+      <c r="W71">
+        <v>-169.006</v>
+      </c>
+      <c r="X71">
+        <v>985.25199999999995</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>38.459000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>85.536000000000001</v>
+      </c>
+      <c r="D72">
+        <v>1060.8230000000001</v>
+      </c>
+      <c r="E72">
+        <v>867.04100000000005</v>
+      </c>
+      <c r="F72">
+        <v>611.18600000000004</v>
+      </c>
+      <c r="G72">
+        <v>1244.3340000000001</v>
+      </c>
+      <c r="H72">
+        <v>11812.534</v>
+      </c>
+      <c r="I72">
+        <v>293.29300000000001</v>
+      </c>
+      <c r="J72">
+        <v>7961.7610000000004</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1273.1030000000001</v>
+      </c>
+      <c r="O72">
+        <v>9659.7469999999994</v>
+      </c>
+      <c r="P72">
+        <v>8085.5789999999997</v>
+      </c>
+      <c r="Q72">
+        <v>-254.29900000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2152.7869999999998</v>
+      </c>
+      <c r="U72">
+        <v>188.19200000000001</v>
+      </c>
+      <c r="V72">
+        <v>301.76100000000002</v>
+      </c>
+      <c r="W72">
+        <v>-168.04599999999999</v>
+      </c>
+      <c r="X72">
+        <v>-186.499</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>91.760999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>65.869</v>
+      </c>
+      <c r="D73">
+        <v>1060.991</v>
+      </c>
+      <c r="E73">
+        <v>847.452</v>
+      </c>
+      <c r="F73">
+        <v>615.86500000000001</v>
+      </c>
+      <c r="G73">
+        <v>1215.9749999999999</v>
+      </c>
+      <c r="H73">
+        <v>11805.968999999999</v>
+      </c>
+      <c r="I73">
+        <v>285.81</v>
+      </c>
+      <c r="J73">
+        <v>8109.1790000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1247.3520000000001</v>
+      </c>
+      <c r="O73">
+        <v>9772.348</v>
+      </c>
+      <c r="P73">
+        <v>8230.8739999999998</v>
+      </c>
+      <c r="Q73">
+        <v>9.484</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2033.6210000000001</v>
+      </c>
+      <c r="U73">
+        <v>197.67599999999999</v>
+      </c>
+      <c r="V73">
+        <v>231.214</v>
+      </c>
+      <c r="W73">
+        <v>-168.351</v>
+      </c>
+      <c r="X73">
+        <v>-29.193999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>65.869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>157.84399999999999</v>
+      </c>
+      <c r="D74">
+        <v>1061.489</v>
+      </c>
+      <c r="E74">
+        <v>846.88900000000001</v>
+      </c>
+      <c r="F74">
+        <v>610.72299999999996</v>
+      </c>
+      <c r="G74">
+        <v>1208.114</v>
+      </c>
+      <c r="H74">
+        <v>11857.218000000001</v>
+      </c>
+      <c r="I74">
+        <v>318.76499999999999</v>
+      </c>
+      <c r="J74">
+        <v>7650.73</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1490.7750000000001</v>
+      </c>
+      <c r="O74">
+        <v>9924.223</v>
+      </c>
+      <c r="P74">
+        <v>8143.7960000000003</v>
+      </c>
+      <c r="Q74">
+        <v>-32.191000000000003</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>26200</v>
+      </c>
+      <c r="T74">
+        <v>1932.9949999999999</v>
+      </c>
+      <c r="U74">
+        <v>165.48500000000001</v>
+      </c>
+      <c r="V74">
+        <v>311.00599999999997</v>
+      </c>
+      <c r="W74">
+        <v>-168.232</v>
+      </c>
+      <c r="X74">
+        <v>-218.881</v>
+      </c>
+      <c r="Y74">
+        <v>366.66</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>157.84399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>29.561</v>
+      </c>
+      <c r="D75">
+        <v>1053.8630000000001</v>
+      </c>
+      <c r="E75">
+        <v>837.52099999999996</v>
+      </c>
+      <c r="F75">
+        <v>593.21699999999998</v>
+      </c>
+      <c r="G75">
+        <v>1209.8499999999999</v>
+      </c>
+      <c r="H75">
+        <v>13689.362999999999</v>
+      </c>
+      <c r="I75">
+        <v>283.709</v>
+      </c>
+      <c r="J75">
+        <v>8027.009</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1351.242</v>
+      </c>
+      <c r="N75">
+        <v>1515.133</v>
+      </c>
+      <c r="O75">
+        <v>11855.527</v>
+      </c>
+      <c r="P75">
+        <v>10353.824000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-4.01</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1833.836</v>
+      </c>
+      <c r="U75">
+        <v>161.47499999999999</v>
+      </c>
+      <c r="V75">
+        <v>117.06699999999999</v>
+      </c>
+      <c r="W75">
+        <v>-178.023</v>
+      </c>
+      <c r="X75">
+        <v>187.73599999999999</v>
+      </c>
+      <c r="Y75">
+        <v>1995.3869999999999</v>
+      </c>
+      <c r="Z75">
+        <v>-19.222000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>29.561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>92.441000000000003</v>
+      </c>
+      <c r="D76">
+        <v>1066.9069999999999</v>
+      </c>
+      <c r="E76">
+        <v>852.33</v>
+      </c>
+      <c r="F76">
+        <v>603.09799999999996</v>
+      </c>
+      <c r="G76">
+        <v>1215.1030000000001</v>
+      </c>
+      <c r="H76">
+        <v>13720.982</v>
+      </c>
+      <c r="I76">
+        <v>303.988</v>
+      </c>
+      <c r="J76">
+        <v>8058.95</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1616.787</v>
+      </c>
+      <c r="O76">
+        <v>11988.888000000001</v>
+      </c>
+      <c r="P76">
+        <v>10382.155000000001</v>
+      </c>
+      <c r="Q76">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1732.0940000000001</v>
+      </c>
+      <c r="U76">
+        <v>161.99600000000001</v>
+      </c>
+      <c r="V76">
+        <v>312.66399999999999</v>
+      </c>
+      <c r="W76">
+        <v>-175.334</v>
+      </c>
+      <c r="X76">
+        <v>-148.63399999999999</v>
+      </c>
+      <c r="Y76">
+        <v>1986.71</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>92.441000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>107.675</v>
+      </c>
+      <c r="D77">
+        <v>1062.2239999999999</v>
+      </c>
+      <c r="E77">
+        <v>821.92600000000004</v>
+      </c>
+      <c r="F77">
+        <v>612.85199999999998</v>
+      </c>
+      <c r="G77">
+        <v>1203.893</v>
+      </c>
+      <c r="H77">
+        <v>13577.166999999999</v>
+      </c>
+      <c r="I77">
+        <v>289.94</v>
+      </c>
+      <c r="J77">
+        <v>7901.3609999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1830.1110000000001</v>
+      </c>
+      <c r="O77">
+        <v>11997.218999999999</v>
+      </c>
+      <c r="P77">
+        <v>10458.252</v>
+      </c>
+      <c r="Q77">
+        <v>24.782</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1579.9480000000001</v>
+      </c>
+      <c r="U77">
+        <v>186.77799999999999</v>
+      </c>
+      <c r="V77">
+        <v>218.41399999999999</v>
+      </c>
+      <c r="W77">
+        <v>-175.55099999999999</v>
+      </c>
+      <c r="X77">
+        <v>-19.216999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>1945.893</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>107.675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D78">
+        <v>1079.5899999999999</v>
+      </c>
+      <c r="E78">
+        <v>850.70100000000002</v>
+      </c>
+      <c r="F78">
+        <v>620.10199999999998</v>
+      </c>
+      <c r="G78">
+        <v>1236.3389999999999</v>
+      </c>
+      <c r="H78">
+        <v>13816.816000000001</v>
+      </c>
+      <c r="I78">
+        <v>324.70800000000003</v>
+      </c>
+      <c r="J78">
+        <v>7963.74</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1949.509</v>
+      </c>
+      <c r="O78">
+        <v>12284.906999999999</v>
+      </c>
+      <c r="P78">
+        <v>10625.288</v>
+      </c>
+      <c r="Q78">
+        <v>6.7770000000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>25000</v>
+      </c>
+      <c r="T78">
+        <v>1531.9090000000001</v>
+      </c>
+      <c r="U78">
+        <v>193.55500000000001</v>
+      </c>
+      <c r="V78">
+        <v>318.51</v>
+      </c>
+      <c r="W78">
+        <v>-175.61799999999999</v>
+      </c>
+      <c r="X78">
+        <v>-218.858</v>
+      </c>
+      <c r="Y78">
+        <v>2049.2860000000001</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>63.975000000000001</v>
+      </c>
+      <c r="D79">
+        <v>1068.731</v>
+      </c>
+      <c r="E79">
+        <v>831.50699999999995</v>
+      </c>
+      <c r="F79">
+        <v>601.80999999999995</v>
+      </c>
+      <c r="G79">
+        <v>1199.056</v>
+      </c>
+      <c r="H79">
+        <v>13566.335999999999</v>
+      </c>
+      <c r="I79">
+        <v>321.16000000000003</v>
+      </c>
+      <c r="J79">
+        <v>8419.1080000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-2581.7710000000002</v>
+      </c>
+      <c r="N79">
+        <v>1581.2629999999999</v>
+      </c>
+      <c r="O79">
+        <v>12380.338</v>
+      </c>
+      <c r="P79">
+        <v>10848.888999999999</v>
+      </c>
+      <c r="Q79">
+        <v>-40.871000000000002</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1185.998</v>
+      </c>
+      <c r="U79">
+        <v>152.684</v>
+      </c>
+      <c r="V79">
+        <v>125.41500000000001</v>
+      </c>
+      <c r="W79">
+        <v>-181.30199999999999</v>
+      </c>
+      <c r="X79">
+        <v>73.757999999999996</v>
+      </c>
+      <c r="Y79">
+        <v>2072.893</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>63.975000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-7.0860000000000003</v>
+      </c>
+      <c r="D80">
+        <v>982.23900000000003</v>
+      </c>
+      <c r="E80">
+        <v>805.90099999999995</v>
+      </c>
+      <c r="F80">
+        <v>583.19399999999996</v>
+      </c>
+      <c r="G80">
+        <v>1897.373</v>
+      </c>
+      <c r="H80">
+        <v>14367.553</v>
+      </c>
+      <c r="I80">
+        <v>296.62900000000002</v>
+      </c>
+      <c r="J80">
+        <v>8461.1020000000008</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2383.2710000000002</v>
+      </c>
+      <c r="O80">
+        <v>13279.71</v>
+      </c>
+      <c r="P80">
+        <v>11690.152</v>
+      </c>
+      <c r="Q80">
+        <v>754.49599999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1087.8430000000001</v>
+      </c>
+      <c r="U80">
+        <v>907.18</v>
+      </c>
+      <c r="V80">
+        <v>313.65899999999999</v>
+      </c>
+      <c r="W80">
+        <v>-178.15899999999999</v>
+      </c>
+      <c r="X80">
+        <v>543.154</v>
+      </c>
+      <c r="Y80">
+        <v>2115.9119999999998</v>
+      </c>
+      <c r="Z80">
+        <v>-6.85</v>
+      </c>
+      <c r="AA80">
+        <v>-7.0860000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>38.393999999999998</v>
+      </c>
+      <c r="D81">
+        <v>1036.6469999999999</v>
+      </c>
+      <c r="E81">
+        <v>791.85900000000004</v>
+      </c>
+      <c r="F81">
+        <v>602.14200000000005</v>
+      </c>
+      <c r="G81">
+        <v>1134.0250000000001</v>
+      </c>
+      <c r="H81">
+        <v>13682.66</v>
+      </c>
+      <c r="I81">
+        <v>302.61799999999999</v>
+      </c>
+      <c r="J81">
+        <v>8330.6880000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1890.903</v>
+      </c>
+      <c r="O81">
+        <v>12681.748</v>
+      </c>
+      <c r="P81">
+        <v>11089.523999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-755.20799999999997</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1000.912</v>
+      </c>
+      <c r="U81">
+        <v>151.97200000000001</v>
+      </c>
+      <c r="V81">
+        <v>188.14400000000001</v>
+      </c>
+      <c r="W81">
+        <v>-178.392</v>
+      </c>
+      <c r="X81">
+        <v>-924.08600000000001</v>
+      </c>
+      <c r="Y81">
+        <v>2130.2310000000002</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>38.393999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>247.41</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1059.653</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>859.34400000000005</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>610.42999999999995</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1269.787</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>14149.267</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>359.863</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>8207.4549999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1995.6949999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>12952.733</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11019.213</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>53.091000000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>24000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>1196.5340000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>205.06299999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>360.43900000000002</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-178.43700000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-579.52499999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>2367.7600000000002</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-11.4</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>247.41</v>
       </c>
     </row>
